--- a/doc/descriptions/Стоимость перевозок.xlsx
+++ b/doc/descriptions/Стоимость перевозок.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04966557-D63D-4C70-8B94-7D3903EBEFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8C2558-2F3F-48B0-AD42-52B621618695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B61F87A-92F8-4A0C-BB0B-D3EB25E1EAAE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B61F87A-92F8-4A0C-BB0B-D3EB25E1EAAE}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="121">
   <si>
     <t>№ п.п.</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t xml:space="preserve">Предъявлено </t>
+  </si>
+  <si>
+    <t>авто-поле</t>
   </si>
 </sst>
 </file>
@@ -1414,8 +1417,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1475,8 +1478,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1536,8 +1539,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
@@ -2082,16 +2085,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>971551</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2121,7 +2124,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2676526" y="2686050"/>
+          <a:off x="2219326" y="2495550"/>
           <a:ext cx="762000" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4296,8 +4299,8 @@
   </sheetPr>
   <dimension ref="B2:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:R35"/>
+    <sheetView topLeftCell="I18" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4309,6 +4312,7 @@
     <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
@@ -5218,10 +5222,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Y147"/>
+  <dimension ref="B2:Y148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="U149" sqref="U149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11018,6 +11022,12 @@
       </c>
       <c r="V147" s="2"/>
     </row>
+    <row r="148" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="U148">
+        <f>SUBTOTAL(9,U32:U147)</f>
+        <v>121980</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="H31:V147" xr:uid="{776966A8-192E-4ABE-8005-92330EEA41A1}">
     <filterColumn colId="1">
@@ -11042,7 +11052,7 @@
   <dimension ref="B2:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="X1" sqref="X1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11196,6 +11206,9 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
       <c r="T11" s="25"/>
+      <c r="W11" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="2:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>

--- a/doc/descriptions/Стоимость перевозок.xlsx
+++ b/doc/descriptions/Стоимость перевозок.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8C2558-2F3F-48B0-AD42-52B621618695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D04BD3-1926-4EA7-9C99-B390129FFBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B61F87A-92F8-4A0C-BB0B-D3EB25E1EAAE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1B61F87A-92F8-4A0C-BB0B-D3EB25E1EAAE}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -518,7 +518,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +558,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -886,6 +892,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4299,8 +4311,8 @@
   </sheetPr>
   <dimension ref="B2:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="I18" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4550,25 +4562,25 @@
       <c r="R18" s="22"/>
     </row>
     <row r="19" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="65"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
@@ -4883,25 +4895,25 @@
       <c r="R34" s="22"/>
     </row>
     <row r="35" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="68"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
@@ -4935,10 +4947,10 @@
     </row>
     <row r="38" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="23"/>
-      <c r="C38" s="67">
+      <c r="C38" s="69">
         <v>40842023</v>
       </c>
-      <c r="D38" s="68"/>
+      <c r="D38" s="70"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="23"/>
@@ -5224,8 +5236,8 @@
   </sheetPr>
   <dimension ref="B2:Y148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="U149" sqref="U149"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5351,25 +5363,25 @@
       <c r="R11" s="22"/>
     </row>
     <row r="12" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="65"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
@@ -5472,13 +5484,13 @@
       <c r="P17" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="61" t="s">
         <v>8</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" s="62" t="s">
         <v>10</v>
       </c>
       <c r="T17" s="1" t="s">
@@ -5579,25 +5591,25 @@
       <c r="R21" s="22"/>
     </row>
     <row r="22" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="68"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
@@ -5631,10 +5643,10 @@
     </row>
     <row r="25" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="23"/>
-      <c r="C25" s="67">
+      <c r="C25" s="69">
         <v>40842023</v>
       </c>
-      <c r="D25" s="68"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="23"/>
@@ -11052,7 +11064,7 @@
   <dimension ref="B2:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:Y1048576"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11102,27 +11114,27 @@
     </row>
     <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="65"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
@@ -11436,8 +11448,8 @@
   </sheetPr>
   <dimension ref="B2:AE50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11843,25 +11855,25 @@
       <c r="R31" s="22"/>
     </row>
     <row r="32" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="73"/>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
@@ -12611,25 +12623,25 @@
       <c r="R23" s="22"/>
     </row>
     <row r="24" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="73"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>

--- a/doc/descriptions/Стоимость перевозок.xlsx
+++ b/doc/descriptions/Стоимость перевозок.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D04BD3-1926-4EA7-9C99-B390129FFBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126DE520-5503-4460-AE78-D4BA7CD79108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1B61F87A-92F8-4A0C-BB0B-D3EB25E1EAAE}"/>
   </bookViews>
@@ -11448,8 +11448,8 @@
   </sheetPr>
   <dimension ref="B2:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/descriptions/Стоимость перевозок.xlsx
+++ b/doc/descriptions/Стоимость перевозок.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126DE520-5503-4460-AE78-D4BA7CD79108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0E8D1D-61B8-42B0-93FE-BFFA93CCB7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1B61F87A-92F8-4A0C-BB0B-D3EB25E1EAAE}"/>
   </bookViews>
@@ -11448,8 +11448,8 @@
   </sheetPr>
   <dimension ref="B2:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/descriptions/Стоимость перевозок.xlsx
+++ b/doc/descriptions/Стоимость перевозок.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0E8D1D-61B8-42B0-93FE-BFFA93CCB7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF6C0083-6B71-495E-A234-732965EE4C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1B61F87A-92F8-4A0C-BB0B-D3EB25E1EAAE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{1B61F87A-92F8-4A0C-BB0B-D3EB25E1EAAE}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -18,9 +18,15 @@
     <sheet name="1,3" sheetId="7" r:id="rId3"/>
     <sheet name="2" sheetId="12" r:id="rId4"/>
     <sheet name="2,1" sheetId="15" r:id="rId5"/>
+    <sheet name="3" sheetId="16" r:id="rId6"/>
+    <sheet name="4" sheetId="17" r:id="rId7"/>
+    <sheet name="Перечень" sheetId="18" r:id="rId8"/>
+    <sheet name="5" sheetId="20" r:id="rId9"/>
+    <sheet name="Правки" sheetId="19" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1,2'!$H$31:$V$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Перечень!$A$14:$I$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,8 +45,98 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gubarenko, Lyudmila V</author>
+  </authors>
+  <commentList>
+    <comment ref="L35" authorId="0" shapeId="0" xr:uid="{1FA553E5-E55D-47D1-928A-C7320C70DCDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Gubarenko, Lyudmila V:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ kod="001" pr_avt="1" summa="1297290"/&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M35" authorId="0" shapeId="0" xr:uid="{3B0F5AFE-6701-403D-BF70-F693E6B5BEEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Gubarenko, Lyudmila V:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ kod="2" pr_avt="1" summa="288500"
+kod="014" pr_avt="1" summa="2640000
+kod="016" pr_avt="1" summa="1054110"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L36" authorId="0" shapeId="0" xr:uid="{2916FAD8-8684-4B3C-B681-F5FD76F74F14}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Gubarenko, Lyudmila V:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+kod="001" pr_avt="1" summa="549210"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="250">
   <si>
     <t>№ п.п.</t>
   </si>
@@ -402,14 +498,467 @@
     <t xml:space="preserve">Предъявлено </t>
   </si>
   <si>
-    <t>авто-поле</t>
+    <t>Перечень</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t>№ накл.</t>
+  </si>
+  <si>
+    <t>Дата и время сдачи</t>
+  </si>
+  <si>
+    <t>2025-01-04 14:45:00</t>
+  </si>
+  <si>
+    <t>2025-01-04 15:15:00</t>
+  </si>
+  <si>
+    <t>Груз ОТПР</t>
+  </si>
+  <si>
+    <t>Вагон для проводников</t>
+  </si>
+  <si>
+    <t>Вагоны порожние</t>
+  </si>
+  <si>
+    <t>(ЭПД) Код Груз ОТПР</t>
+  </si>
+  <si>
+    <t>(ЭПД) Код ст. назначения</t>
+  </si>
+  <si>
+    <t>(ЭПД) Станция назначения</t>
+  </si>
+  <si>
+    <t>ИЗОВ</t>
+  </si>
+  <si>
+    <t>Басы</t>
+  </si>
+  <si>
+    <t>(ЭПД) Код плат ОТПР</t>
+  </si>
+  <si>
+    <t>(ЭПД) Плательщик ОТПР</t>
+  </si>
+  <si>
+    <t>ПАТ "АРСЕЛОРМІТТАЛ КРИВИЙ РІГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скорректировать перечень </t>
+  </si>
+  <si>
+    <t>ФІЛІЯ "ЄДИНИЙ РОЗРАХУНКОВИЙ ЦЕНТР ЗАЛІЗНИЧНИХ ПЕРЕВЕЗЕНЬ" АТ "УКРЗАЛІЗНИЦЯ"</t>
+  </si>
+  <si>
+    <t>Перелік № 20250104 від 04.01.2025</t>
+  </si>
+  <si>
+    <t>Назва платника:ПУБЛІЧНЕ АКЦIОНЕРНЕ ТОВАРИСТВО "АРСЕЛОРМIТТАЛ КРИВИЙ РIГ"</t>
+  </si>
+  <si>
+    <t>Код платника:8116733</t>
+  </si>
+  <si>
+    <t>Номер єдиного договору:8116733 від 01.07.2020</t>
+  </si>
+  <si>
+    <t>ВСП Дніпропетровький</t>
+  </si>
+  <si>
+    <t>Розрахунковий рахунок:UA283005840000026008200354222</t>
+  </si>
+  <si>
+    <t>Код МФО:300584</t>
+  </si>
+  <si>
+    <t>ЗКПО:24432974</t>
+  </si>
+  <si>
+    <t>Сальдо на початок розрахункової доби : -8316174,33</t>
+  </si>
+  <si>
+    <t>Вiдправлення</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Станція</t>
+  </si>
+  <si>
+    <t>Назва станції</t>
+  </si>
+  <si>
+    <t>Документ</t>
+  </si>
+  <si>
+    <t>Тариф</t>
+  </si>
+  <si>
+    <t>Дод. збори та послуги</t>
+  </si>
+  <si>
+    <t>ПДВ</t>
+  </si>
+  <si>
+    <t>Всього</t>
+  </si>
+  <si>
+    <t>ПЕТРО КРИВОНІС</t>
+  </si>
+  <si>
+    <t>КИЇВ-ДЕМІЇВСЬКИЙ</t>
+  </si>
+  <si>
+    <t>ОДЕСА-ТОВАРНА</t>
+  </si>
+  <si>
+    <t>КРИВИЙ РІГ</t>
+  </si>
+  <si>
+    <t>КРИВИЙ РІГ-ГОЛОВНИЙ</t>
+  </si>
+  <si>
+    <t>В т. ч. послуги</t>
+  </si>
+  <si>
+    <t>В т. ч. охорона</t>
+  </si>
+  <si>
+    <t>Вiдправлення - мiжнародне сполучення</t>
+  </si>
+  <si>
+    <t>Прибуття - міжнародне</t>
+  </si>
+  <si>
+    <t>Всього проведено платежів</t>
+  </si>
+  <si>
+    <t>в т.ч. за ставкою 0%</t>
+  </si>
+  <si>
+    <t>Передоплата</t>
+  </si>
+  <si>
+    <t>в т.ч. за ставкою 20%</t>
+  </si>
+  <si>
+    <t>в т.ч. звільнені від оподаткування(транзит), пеня, штрафи</t>
+  </si>
+  <si>
+    <t>Списано</t>
+  </si>
+  <si>
+    <t>За додатковi послуги</t>
+  </si>
+  <si>
+    <t>Зараховано</t>
+  </si>
+  <si>
+    <t>Зарезервовано</t>
+  </si>
+  <si>
+    <t>Разом</t>
+  </si>
+  <si>
+    <t>Сальдо на кінець розрахункової доби :</t>
+  </si>
+  <si>
+    <t>в т.ч. резерв :</t>
+  </si>
+  <si>
+    <t>Вiдповiдальний працiвник __________________________________</t>
+  </si>
+  <si>
+    <t>Оператор по АМКР ОТПР</t>
+  </si>
+  <si>
+    <t>ЦТЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (ЭПД) Код ст. отправления</t>
+  </si>
+  <si>
+    <t>(ЭПД) Станция отправления</t>
+  </si>
+  <si>
+    <t>Кривой Рог</t>
+  </si>
+  <si>
+    <t>Тарифы по отправлению</t>
+  </si>
+  <si>
+    <t>Нажимаем  - Применить</t>
+  </si>
+  <si>
+    <t>Выбираем -  период</t>
+  </si>
+  <si>
+    <t>Выбираем  - Фильтр  Плательщик  - по умолчанию АМКР (8116733 код в документе)</t>
+  </si>
+  <si>
+    <t>Род.</t>
+  </si>
+  <si>
+    <t>КР</t>
+  </si>
+  <si>
+    <t>ЦС</t>
+  </si>
+  <si>
+    <t>Дорога ОТПР</t>
+  </si>
+  <si>
+    <t>(ЭПД) Тар.расс. ОТПР</t>
+  </si>
+  <si>
+    <t>Львовская</t>
+  </si>
+  <si>
+    <t>Южная</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Тариф УЗ (ЭПД) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>kod="001" pr_avt="1" </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Кол-во проводников  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kol_conductor=""</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Доп. сборы ЭПД           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>kod="2" pr_avt="1"   " kod="014" pr_avt="1"  kod="016" pr_avt="1"</t>
+    </r>
+  </si>
+  <si>
+    <t>Тариф по договору, грн</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(ЭПД) Станция отправления </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>name_from</t>
+    </r>
+  </si>
+  <si>
+    <t>Выбираем фильтр Станция отправления - Кривой Рог или Кривой Рог-Гл.</t>
+  </si>
+  <si>
+    <t>Выбираем  - Фильтр  Плательщик  - по умолчанию АМКР (код 8116733 код в документе)</t>
+  </si>
+  <si>
+    <t>Сверка тарифов по отправлению</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тариф УЗ (ЭПД) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доп. сборы ЭПД  </t>
+  </si>
+  <si>
+    <t>Разница (по ЭПД и Тариф по договору, грн)</t>
+  </si>
+  <si>
+    <t>Итого по ЭПД, грн</t>
+  </si>
+  <si>
+    <t>Из списка  отфильтрованных данных выделяем строку и вносим ж.д. по договору и нажимаем Применить</t>
+  </si>
+  <si>
+    <t>Накладная</t>
+  </si>
+  <si>
+    <t>Отчет по накладной</t>
+  </si>
+  <si>
+    <t>№п.п</t>
+  </si>
+  <si>
+    <t>Кол. ваг.</t>
+  </si>
+  <si>
+    <t>Ж.д. тариф по договору, грн.</t>
+  </si>
+  <si>
+    <t>Предъявлено</t>
+  </si>
+  <si>
+    <t>Тариф ПРИБ (док)</t>
+  </si>
+  <si>
+    <t>Разница, грн.</t>
+  </si>
+  <si>
+    <t>Код плательщика ПРИБ.</t>
+  </si>
+  <si>
+    <t>ТОВ «МТО»</t>
+  </si>
+  <si>
+    <t>МТО</t>
+  </si>
+  <si>
+    <t>2025-02-28 02:16:00</t>
+  </si>
+  <si>
+    <t>2025-03-02 19:30:00</t>
+  </si>
+  <si>
+    <t>2025-04-03 11:13:26</t>
+  </si>
+  <si>
+    <t>EUROPE\lvgubarenko</t>
+  </si>
+  <si>
+    <t>ТОВ "ДЕВКАЛІОН ЛТД"</t>
+  </si>
+  <si>
+    <t>СЛАВКОВ ЛХС</t>
+  </si>
+  <si>
+    <t>ДЕВКАЛИОН</t>
+  </si>
+  <si>
+    <t>2025-03-01 20:40:00</t>
+  </si>
+  <si>
+    <t>2025-03-07 06:20:00</t>
+  </si>
+  <si>
+    <t>2025-04-16 15:47:34</t>
+  </si>
+  <si>
+    <t>2025-04-25 12:06:14</t>
+  </si>
+  <si>
+    <t>ТОВ "Інноваційні транспортні технології"</t>
+  </si>
+  <si>
+    <t>ИТТ</t>
+  </si>
+  <si>
+    <t>2025-03-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2025-04-03 11:04:45</t>
+  </si>
+  <si>
+    <t>Поиск накладной по прибытию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тариф - </t>
+  </si>
+  <si>
+    <t>kod="001" pr_avt="1" summa="938380"</t>
+  </si>
+  <si>
+    <r>
+      <t>Доп. сборы -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> это сумма</t>
+    </r>
+  </si>
+  <si>
+    <t> kod="2" pr_avt="1" summa="318980"</t>
+  </si>
+  <si>
+    <t>" kod="014" pr_avt="1" summa="2560000"</t>
+  </si>
+  <si>
+    <t>kod="016" pr_avt="1" summa="938380"</t>
+  </si>
+  <si>
+    <t> kod="3" podkod="107" pr_avt="1" summa="17940"/&gt;</t>
+  </si>
+  <si>
+    <t>kod="003" podkod="105" pr_avt="1" summa="180120"</t>
+  </si>
+  <si>
+    <t> kod="006" pr_avt="1" summa="1153500"/&gt;</t>
+  </si>
+  <si>
+    <t>Выбираем - Фильтр  Груз ОТПР  с выбором нескольких значений</t>
+  </si>
+  <si>
+    <t>Фильтр  Груз ОТПР  с выбором нескольких значений</t>
+  </si>
+  <si>
+    <t>Ошибка в слове  в сообщении "За период c 2025-02-01 00:01 по 2025-02-28 23:59, загружено 4425 накладных"</t>
+  </si>
+  <si>
+    <t>Слово "сюрошены" ??</t>
+  </si>
+  <si>
+    <t>Ошибки в словах с расчетом и выбрано</t>
+  </si>
+  <si>
+    <t>Удалит столбец «дата расчета» их два одинаковых</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +980,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -509,13 +1060,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF881280"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0A3622"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="9">
@@ -563,12 +1206,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCBE3F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -788,11 +1431,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -891,12 +1656,118 @@
     <xf numFmtId="2" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -931,11 +1802,101 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFDA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1429,8 +2390,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1490,8 +2451,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1551,8 +2512,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
@@ -1586,6 +2547,194 @@
         <a:xfrm>
           <a:off x="3933825" y="6172200"/>
           <a:ext cx="6515100" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E289B8B-1E32-47E9-9006-3DAAB32C8A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="895350" y="276225"/>
+          <a:ext cx="3771900" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DBE5D1-F957-4B9D-AAB1-C64B3821B991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="3038475"/>
+          <a:ext cx="8353425" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7051BDB5-BB07-47A6-823A-EB08E81926F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="228600" y="4229100"/>
+          <a:ext cx="7048500" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2097,16 +3246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>971551</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2136,7 +3285,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2219326" y="2495550"/>
+          <a:off x="2676526" y="2686050"/>
           <a:ext cx="762000" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2558,7 +3707,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -2619,7 +3768,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -2863,7 +4012,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -3106,8 +4255,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>154489</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>440239</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>8417</xdr:rowOff>
     </xdr:to>
@@ -3145,15 +4294,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3183,7 +4332,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9686925" y="2867025"/>
+          <a:off x="10144125" y="2838450"/>
           <a:ext cx="409575" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3717,7 +4866,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3988,6 +5137,1381 @@
         <a:xfrm>
           <a:off x="657225" y="2562225"/>
           <a:ext cx="342900" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073051E9-E8A6-44E9-8341-409C716B42ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="381000" y="1371600"/>
+          <a:ext cx="981075" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431865</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6340700B-C10D-4A86-B363-6928CACCD69E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="1362075"/>
+          <a:ext cx="2213040" cy="2064055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>710130</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>18329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B256E2A3-2D4A-41DA-852D-95FB89EEBAD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="1323975"/>
+          <a:ext cx="3767655" cy="475529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207EA5E0-334E-4F69-B3A7-F41D0D6106F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4886325" y="2390775"/>
+          <a:ext cx="1971675" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC92135-D1E8-4130-A66C-490E2CA15D8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8105775" y="1600200"/>
+          <a:ext cx="2600325" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>704851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6ABC67-FD4B-4909-A634-1E301C0F3BFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2486025" y="5924551"/>
+          <a:ext cx="952500" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48DDDA0F-16FA-494A-81EA-53FF5CDA974C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2505076" y="6781800"/>
+          <a:ext cx="1057274" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DECCB594-ADDD-4659-85BF-0CA44F4B673F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4895850" y="3248025"/>
+          <a:ext cx="2019300" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C35D681-934E-4F45-AFEB-68FE148DFB61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2686050" y="4933949"/>
+          <a:ext cx="695325" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>697414</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9F9B43-0B07-45A1-A8D7-2BFEDA23146F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895725" y="6076950"/>
+          <a:ext cx="6517189" cy="408467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>503757</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>131482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB8EFFE-2D10-4569-8205-9E7C1DE7FD95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="2247900"/>
+          <a:ext cx="865707" cy="426757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>513282</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>131482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB32A92E-CD66-4EDC-9D7D-E28AD51990AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="6315075"/>
+          <a:ext cx="865707" cy="426757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A23829-4F83-46A2-9BC1-583F3C429A4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="809625" y="628650"/>
+          <a:ext cx="981075" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431865</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA4ABD1-8FF2-4CBF-84E7-A05252A83731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="1533525"/>
+          <a:ext cx="2213040" cy="2054530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>948255</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E449356-EAE7-44EF-8266-D4203A6873CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="571500"/>
+          <a:ext cx="3767655" cy="475529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>559479</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>94929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805A0EDD-9348-466B-A5EA-0F50002FE281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="1590675"/>
+          <a:ext cx="1969179" cy="695004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>383453</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>126533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B70C158-FF91-4D2D-80C3-D4BC61171B80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362450" y="4114800"/>
+          <a:ext cx="1926503" cy="469433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C42C0B-FE4B-4F97-83BD-4FC3CB0EBE85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6515100" y="3876675"/>
+          <a:ext cx="1952625" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627674</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>17582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0245CBC8-3FA4-408C-9FE5-72DAE90797B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658475" y="3829050"/>
+          <a:ext cx="1932599" cy="646232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDC710C-EEE2-48DA-9342-DAD9EF51D3E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13106400" y="3057525"/>
+          <a:ext cx="1962150" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F741BBF-BC4F-4D4B-A341-F24174B55595}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8763000" y="3171825"/>
+          <a:ext cx="1952625" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2A96D6-0A41-4A14-AD21-F8C1D17B3A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13506450" y="1571624"/>
+          <a:ext cx="695325" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81151D6-A7EC-4E01-A23E-4387F114FC99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8296275" y="0"/>
+          <a:ext cx="14392275" cy="6096000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267BD985-A5F7-4F34-894C-F22E08183E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="295275"/>
+          <a:ext cx="8734425" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D08188-5C9D-4C06-9753-6CA57241DF08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1657350" y="1571625"/>
+          <a:ext cx="2895600" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4311,8 +6835,8 @@
   </sheetPr>
   <dimension ref="B2:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4324,7 +6848,6 @@
     <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
@@ -4562,25 +7085,25 @@
       <c r="R18" s="22"/>
     </row>
     <row r="19" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="65"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="111"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
@@ -4895,25 +7418,25 @@
       <c r="R34" s="22"/>
     </row>
     <row r="35" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="68"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="114"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
@@ -4947,10 +7470,10 @@
     </row>
     <row r="38" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="23"/>
-      <c r="C38" s="69">
+      <c r="C38" s="115">
         <v>40842023</v>
       </c>
-      <c r="D38" s="70"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="23"/>
@@ -5229,15 +7752,133 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F95887-A135-4525-A0DF-37ED5E0D06DE}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="98">
+        <v>1</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="107"/>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="107"/>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="107"/>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="107"/>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="107"/>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="107"/>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="107"/>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="107"/>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="98">
+        <v>2</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="107"/>
+    </row>
+    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="107"/>
+    </row>
+    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="107"/>
+    </row>
+    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="107"/>
+    </row>
+    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="98">
+        <v>3</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="107"/>
+    </row>
+    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="107"/>
+    </row>
+    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="107"/>
+    </row>
+    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="107"/>
+    </row>
+    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="107"/>
+    </row>
+    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="107"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="98">
+        <v>4</v>
+      </c>
+      <c r="B22" s="108" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="107"/>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="107"/>
+    </row>
+    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="107"/>
+    </row>
+    <row r="55" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="97"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEF439A-FC42-437A-8594-F5D30EFA2C38}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Y148"/>
+  <dimension ref="B2:Y147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5363,25 +8004,25 @@
       <c r="R11" s="22"/>
     </row>
     <row r="12" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="65"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="111"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
@@ -5484,13 +8125,13 @@
       <c r="P17" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" s="61" t="s">
+      <c r="Q17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="62" t="s">
+      <c r="S17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T17" s="1" t="s">
@@ -5591,25 +8232,25 @@
       <c r="R21" s="22"/>
     </row>
     <row r="22" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="68"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="114"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
@@ -5643,10 +8284,10 @@
     </row>
     <row r="25" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="23"/>
-      <c r="C25" s="69">
+      <c r="C25" s="115">
         <v>40842023</v>
       </c>
-      <c r="D25" s="70"/>
+      <c r="D25" s="116"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="23"/>
@@ -11033,12 +13674,6 @@
         <v>9015</v>
       </c>
       <c r="V147" s="2"/>
-    </row>
-    <row r="148" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="U148">
-        <f>SUBTOTAL(9,U32:U147)</f>
-        <v>121980</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="H31:V147" xr:uid="{776966A8-192E-4ABE-8005-92330EEA41A1}">
@@ -11064,7 +13699,7 @@
   <dimension ref="B2:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="X12" sqref="X12:Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11114,27 +13749,27 @@
     </row>
     <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="65"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="111"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
@@ -11218,9 +13853,6 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
       <c r="T11" s="25"/>
-      <c r="W11" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="12" spans="2:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
@@ -11448,8 +14080,8 @@
   </sheetPr>
   <dimension ref="B2:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="AD37" sqref="AD37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11460,8 +14092,9 @@
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -11855,25 +14488,25 @@
       <c r="R31" s="22"/>
     </row>
     <row r="32" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="73"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="119"/>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
@@ -12250,8 +14883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A933ABDA-D0A7-40C6-8AB1-347A246624A9}">
   <dimension ref="A2:AE46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12623,25 +15256,25 @@
       <c r="R23" s="22"/>
     </row>
     <row r="24" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="73"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="119"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
@@ -12691,11 +15324,9 @@
       <c r="Q27" s="24"/>
       <c r="R27" s="25"/>
     </row>
-    <row r="28" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23"/>
-      <c r="C28" s="60">
-        <v>53</v>
-      </c>
+      <c r="C28" s="29"/>
       <c r="D28" s="27"/>
       <c r="E28" s="28"/>
       <c r="F28" s="25"/>
@@ -13787,6 +16418,3791 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3EF74D-9D25-4A78-8FF3-5754B2107C27}">
+  <dimension ref="B1:AD39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="77" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="27"/>
+      <c r="O1" s="106" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="28"/>
+    </row>
+    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101" t="s">
+        <v>237</v>
+      </c>
+      <c r="O3" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L4" s="101"/>
+      <c r="O4" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="25"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L5" s="101"/>
+      <c r="O5" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L6" s="101"/>
+      <c r="O6" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="25"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L7" s="101"/>
+      <c r="O7" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="25"/>
+    </row>
+    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="101"/>
+      <c r="O8" s="104" t="s">
+        <v>243</v>
+      </c>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="22"/>
+    </row>
+    <row r="10" spans="2:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="19"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="25"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="25"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="25"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="25"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="25"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="25"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="25"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="25"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="25"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="25"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="25"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="25"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="25"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="25"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="25"/>
+    </row>
+    <row r="27" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="22"/>
+    </row>
+    <row r="29" spans="2:21" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="E29" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="115"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="34" spans="2:30" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="H34" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="L34" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="M34" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="N34" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="O34" s="94" t="s">
+        <v>198</v>
+      </c>
+      <c r="P34" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q34" s="95" t="s">
+        <v>196</v>
+      </c>
+      <c r="R34" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="S34" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="T34" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="U34" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="V34" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="W34" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="X34" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y34" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z34" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA34" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB34" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC34" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD34" s="85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="90">
+        <v>52799</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="24"/>
+      <c r="H35" s="84">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>46228342</v>
+      </c>
+      <c r="J35" s="3">
+        <v>24591786</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L35" s="82">
+        <v>12972.9</v>
+      </c>
+      <c r="M35" s="82">
+        <v>39826.1</v>
+      </c>
+      <c r="N35" s="89">
+        <f>L35+M35</f>
+        <v>52799</v>
+      </c>
+      <c r="O35" s="91">
+        <v>52799</v>
+      </c>
+      <c r="P35" s="91">
+        <f>N35-O35</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="96">
+        <v>2</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="S35" s="59">
+        <v>467201</v>
+      </c>
+      <c r="T35" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="U35" s="3">
+        <v>352506</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="X35" s="4">
+        <v>8116733</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>1009</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC35" s="86">
+        <v>44927.631944444445</v>
+      </c>
+      <c r="AD35" s="87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="H36" s="84">
+        <v>2</v>
+      </c>
+      <c r="I36" s="3">
+        <v>46228409</v>
+      </c>
+      <c r="J36" s="3">
+        <v>50247816</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L36" s="82">
+        <v>5492.1</v>
+      </c>
+      <c r="M36" s="82"/>
+      <c r="N36" s="89">
+        <f t="shared" ref="N36:N37" si="0">L36+M36</f>
+        <v>5492.1</v>
+      </c>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="S36" s="59">
+        <v>467004</v>
+      </c>
+      <c r="T36" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="U36" s="3">
+        <v>445607</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="X36" s="4">
+        <v>8116733</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>654</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC36" s="86">
+        <v>44928.631944444445</v>
+      </c>
+      <c r="AD36" s="87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="82">
+        <f>SUM(L35:L36)</f>
+        <v>18465</v>
+      </c>
+      <c r="M37" s="82">
+        <f>SUM(M35:M36)</f>
+        <v>39826.1</v>
+      </c>
+      <c r="N37" s="89">
+        <f t="shared" si="0"/>
+        <v>58291.1</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+    </row>
+    <row r="38" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="29"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B32:C32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A4C788-B890-42BC-B7B1-0E50D48C46D3}">
+  <dimension ref="B3:Z32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1"/>
+    <col min="17" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" customWidth="1"/>
+    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="19"/>
+    </row>
+    <row r="9" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="25"/>
+    </row>
+    <row r="10" spans="2:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="25"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="25"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="25"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="25"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="25"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="25"/>
+    </row>
+    <row r="17" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="25"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="25"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="25"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="25"/>
+    </row>
+    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="22"/>
+    </row>
+    <row r="22" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="G23" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="R23" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="S23" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="T23" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="U23" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="V23" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="W23" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="X23" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y23" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z23" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="3">
+        <v>46228342</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="5">
+        <v>12972.9</v>
+      </c>
+      <c r="J24" s="5">
+        <f>2885+26400+10541.1</f>
+        <v>39826.1</v>
+      </c>
+      <c r="K24" s="5">
+        <f>I24+J24</f>
+        <v>52799</v>
+      </c>
+      <c r="L24" s="75">
+        <v>20250104</v>
+      </c>
+      <c r="M24" s="76">
+        <v>45661</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>24591786</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>421161</v>
+      </c>
+      <c r="R24" s="3">
+        <v>467201</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="T24" s="3">
+        <v>352506</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="W24" s="4">
+        <v>8116733</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y24" s="62">
+        <v>44927.631944444445</v>
+      </c>
+      <c r="Z24" s="63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C25" s="60">
+        <v>20250104</v>
+      </c>
+      <c r="D25" s="60"/>
+      <c r="G25" s="3">
+        <v>46228409</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="5">
+        <v>5492.1</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5">
+        <f>I25+J25</f>
+        <v>5492.1</v>
+      </c>
+      <c r="L25" s="75">
+        <v>20250104</v>
+      </c>
+      <c r="M25" s="76">
+        <v>45661</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>50247816</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>421034</v>
+      </c>
+      <c r="R25" s="3">
+        <v>467004</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T25" s="3">
+        <v>445607</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W25" s="4">
+        <v>8116733</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y25" s="62">
+        <v>44928.631944444445</v>
+      </c>
+      <c r="Z25" s="63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="121"/>
+      <c r="I26" s="92">
+        <f>SUM(I24:I25)</f>
+        <v>18465</v>
+      </c>
+      <c r="J26" s="92">
+        <f t="shared" ref="J26:K26" si="0">SUM(J24:J25)</f>
+        <v>39826.1</v>
+      </c>
+      <c r="K26" s="92">
+        <f t="shared" si="0"/>
+        <v>58291.1</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C27" s="61">
+        <v>45661</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+    </row>
+    <row r="29" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+    </row>
+    <row r="31" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C32" s="61"/>
+      <c r="D32" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O10:P10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C79D57-50CD-4C20-9B49-6C89CAD6CF50}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:I87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="124" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="126"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="123"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="123" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="123" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="135"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="123" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="127"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+    </row>
+    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="132"/>
+    </row>
+    <row r="15" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B15" s="67">
+        <v>320806</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="68">
+        <v>34854885</v>
+      </c>
+      <c r="E15" s="69">
+        <v>5981.8</v>
+      </c>
+      <c r="F15" s="69">
+        <v>0</v>
+      </c>
+      <c r="G15" s="69">
+        <v>1196.3599999999999</v>
+      </c>
+      <c r="H15" s="133">
+        <v>7178.16</v>
+      </c>
+      <c r="I15" s="134"/>
+    </row>
+    <row r="16" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B16" s="67">
+        <v>320806</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="68">
+        <v>34854893</v>
+      </c>
+      <c r="E16" s="69">
+        <v>5981.8</v>
+      </c>
+      <c r="F16" s="69">
+        <v>0</v>
+      </c>
+      <c r="G16" s="69">
+        <v>1196.3599999999999</v>
+      </c>
+      <c r="H16" s="133">
+        <v>7178.16</v>
+      </c>
+      <c r="I16" s="134"/>
+    </row>
+    <row r="17" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B17" s="67">
+        <v>320100</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="68">
+        <v>34855494</v>
+      </c>
+      <c r="E17" s="69">
+        <v>7406.3</v>
+      </c>
+      <c r="F17" s="69">
+        <v>0</v>
+      </c>
+      <c r="G17" s="69">
+        <v>1481.26</v>
+      </c>
+      <c r="H17" s="133">
+        <v>8887.56</v>
+      </c>
+      <c r="I17" s="134"/>
+    </row>
+    <row r="18" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B18" s="67">
+        <v>320100</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="68">
+        <v>34855502</v>
+      </c>
+      <c r="E18" s="69">
+        <v>7406.3</v>
+      </c>
+      <c r="F18" s="69">
+        <v>0</v>
+      </c>
+      <c r="G18" s="69">
+        <v>1481.26</v>
+      </c>
+      <c r="H18" s="133">
+        <v>8887.56</v>
+      </c>
+      <c r="I18" s="134"/>
+    </row>
+    <row r="19" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B19" s="67">
+        <v>320100</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="68">
+        <v>34855510</v>
+      </c>
+      <c r="E19" s="69">
+        <v>7406.3</v>
+      </c>
+      <c r="F19" s="69">
+        <v>0</v>
+      </c>
+      <c r="G19" s="69">
+        <v>1481.26</v>
+      </c>
+      <c r="H19" s="133">
+        <v>8887.56</v>
+      </c>
+      <c r="I19" s="134"/>
+    </row>
+    <row r="20" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B20" s="67">
+        <v>320100</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="68">
+        <v>34855528</v>
+      </c>
+      <c r="E20" s="69">
+        <v>7406.3</v>
+      </c>
+      <c r="F20" s="69">
+        <v>0</v>
+      </c>
+      <c r="G20" s="69">
+        <v>1481.26</v>
+      </c>
+      <c r="H20" s="133">
+        <v>8887.56</v>
+      </c>
+      <c r="I20" s="134"/>
+    </row>
+    <row r="21" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B21" s="67">
+        <v>400201</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="68">
+        <v>41606385</v>
+      </c>
+      <c r="E21" s="69">
+        <v>8806.2000000000007</v>
+      </c>
+      <c r="F21" s="69">
+        <v>0</v>
+      </c>
+      <c r="G21" s="69">
+        <v>1761.24</v>
+      </c>
+      <c r="H21" s="133">
+        <v>10567.44</v>
+      </c>
+      <c r="I21" s="134"/>
+    </row>
+    <row r="22" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B22" s="67">
+        <v>400201</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="68">
+        <v>41606401</v>
+      </c>
+      <c r="E22" s="69">
+        <v>8806.2000000000007</v>
+      </c>
+      <c r="F22" s="69">
+        <v>0</v>
+      </c>
+      <c r="G22" s="69">
+        <v>1761.24</v>
+      </c>
+      <c r="H22" s="133">
+        <v>10567.44</v>
+      </c>
+      <c r="I22" s="134"/>
+    </row>
+    <row r="23" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B23" s="67">
+        <v>400201</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="68">
+        <v>41606419</v>
+      </c>
+      <c r="E23" s="69">
+        <v>8806.2000000000007</v>
+      </c>
+      <c r="F23" s="69">
+        <v>0</v>
+      </c>
+      <c r="G23" s="69">
+        <v>1761.24</v>
+      </c>
+      <c r="H23" s="133">
+        <v>10567.44</v>
+      </c>
+      <c r="I23" s="134"/>
+    </row>
+    <row r="24" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B24" s="67">
+        <v>400201</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="68">
+        <v>41606427</v>
+      </c>
+      <c r="E24" s="69">
+        <v>8806.2000000000007</v>
+      </c>
+      <c r="F24" s="69">
+        <v>0</v>
+      </c>
+      <c r="G24" s="69">
+        <v>1761.24</v>
+      </c>
+      <c r="H24" s="133">
+        <v>10567.44</v>
+      </c>
+      <c r="I24" s="134"/>
+    </row>
+    <row r="25" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B25" s="67">
+        <v>400201</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="68">
+        <v>41606435</v>
+      </c>
+      <c r="E25" s="69">
+        <v>8806.2000000000007</v>
+      </c>
+      <c r="F25" s="69">
+        <v>0</v>
+      </c>
+      <c r="G25" s="69">
+        <v>1761.24</v>
+      </c>
+      <c r="H25" s="133">
+        <v>10567.44</v>
+      </c>
+      <c r="I25" s="134"/>
+    </row>
+    <row r="26" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B26" s="67">
+        <v>400201</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="68">
+        <v>41606443</v>
+      </c>
+      <c r="E26" s="69">
+        <v>8806.2000000000007</v>
+      </c>
+      <c r="F26" s="69">
+        <v>0</v>
+      </c>
+      <c r="G26" s="69">
+        <v>1761.24</v>
+      </c>
+      <c r="H26" s="133">
+        <v>10567.44</v>
+      </c>
+      <c r="I26" s="134"/>
+    </row>
+    <row r="27" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B27" s="67">
+        <v>400201</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="68">
+        <v>41606450</v>
+      </c>
+      <c r="E27" s="69">
+        <v>8806.2000000000007</v>
+      </c>
+      <c r="F27" s="69">
+        <v>0</v>
+      </c>
+      <c r="G27" s="69">
+        <v>1761.24</v>
+      </c>
+      <c r="H27" s="133">
+        <v>10567.44</v>
+      </c>
+      <c r="I27" s="134"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B28" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="68">
+        <v>46228102</v>
+      </c>
+      <c r="E28" s="69">
+        <v>14210</v>
+      </c>
+      <c r="F28" s="69">
+        <v>1670.59</v>
+      </c>
+      <c r="G28" s="69">
+        <v>3176.12</v>
+      </c>
+      <c r="H28" s="133">
+        <v>19056.71</v>
+      </c>
+      <c r="I28" s="134"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B29" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="68">
+        <v>46228110</v>
+      </c>
+      <c r="E29" s="69">
+        <v>14210</v>
+      </c>
+      <c r="F29" s="69">
+        <v>1670.59</v>
+      </c>
+      <c r="G29" s="69">
+        <v>3176.12</v>
+      </c>
+      <c r="H29" s="133">
+        <v>19056.71</v>
+      </c>
+      <c r="I29" s="134"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B30" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="68">
+        <v>46228128</v>
+      </c>
+      <c r="E30" s="69">
+        <v>32995</v>
+      </c>
+      <c r="F30" s="69">
+        <v>6160.84</v>
+      </c>
+      <c r="G30" s="69">
+        <v>7831.17</v>
+      </c>
+      <c r="H30" s="133">
+        <v>46987.01</v>
+      </c>
+      <c r="I30" s="134"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B31" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="68">
+        <v>46228136</v>
+      </c>
+      <c r="E31" s="69">
+        <v>14210</v>
+      </c>
+      <c r="F31" s="69">
+        <v>1670.59</v>
+      </c>
+      <c r="G31" s="69">
+        <v>3176.12</v>
+      </c>
+      <c r="H31" s="133">
+        <v>19056.71</v>
+      </c>
+      <c r="I31" s="134"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B32" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="68">
+        <v>46228284</v>
+      </c>
+      <c r="E32" s="69">
+        <v>35374</v>
+      </c>
+      <c r="F32" s="69">
+        <v>6293.42</v>
+      </c>
+      <c r="G32" s="69">
+        <v>8333.48</v>
+      </c>
+      <c r="H32" s="133">
+        <v>50000.9</v>
+      </c>
+      <c r="I32" s="134"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B33" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="68">
+        <v>46228292</v>
+      </c>
+      <c r="E33" s="69">
+        <v>28142</v>
+      </c>
+      <c r="F33" s="69">
+        <v>4640.5200000000004</v>
+      </c>
+      <c r="G33" s="69">
+        <v>6556.5</v>
+      </c>
+      <c r="H33" s="133">
+        <v>39339.019999999997</v>
+      </c>
+      <c r="I33" s="134"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B34" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="68">
+        <v>46228300</v>
+      </c>
+      <c r="E34" s="69">
+        <v>35880</v>
+      </c>
+      <c r="F34" s="69">
+        <v>6293.42</v>
+      </c>
+      <c r="G34" s="69">
+        <v>8434.68</v>
+      </c>
+      <c r="H34" s="133">
+        <v>50608.1</v>
+      </c>
+      <c r="I34" s="134"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B35" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="68">
+        <v>46228318</v>
+      </c>
+      <c r="E35" s="69">
+        <v>27757</v>
+      </c>
+      <c r="F35" s="69">
+        <v>4640.5200000000004</v>
+      </c>
+      <c r="G35" s="69">
+        <v>6479.5</v>
+      </c>
+      <c r="H35" s="133">
+        <v>38877.019999999997</v>
+      </c>
+      <c r="I35" s="134"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B36" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="68">
+        <v>46228326</v>
+      </c>
+      <c r="E36" s="69">
+        <v>27757</v>
+      </c>
+      <c r="F36" s="69">
+        <v>4640.5200000000004</v>
+      </c>
+      <c r="G36" s="69">
+        <v>6479.5</v>
+      </c>
+      <c r="H36" s="133">
+        <v>38877.019999999997</v>
+      </c>
+      <c r="I36" s="134"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B37" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="68">
+        <v>46228334</v>
+      </c>
+      <c r="E37" s="69">
+        <v>28142</v>
+      </c>
+      <c r="F37" s="69">
+        <v>4640.5200000000004</v>
+      </c>
+      <c r="G37" s="69">
+        <v>6556.5</v>
+      </c>
+      <c r="H37" s="133">
+        <v>39339.019999999997</v>
+      </c>
+      <c r="I37" s="134"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="71">
+        <v>45661</v>
+      </c>
+      <c r="B38" s="72">
+        <v>467201</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="73">
+        <v>46228342</v>
+      </c>
+      <c r="E38" s="74">
+        <v>12972.9</v>
+      </c>
+      <c r="F38" s="74">
+        <v>39826.1</v>
+      </c>
+      <c r="G38" s="74">
+        <v>10559.8</v>
+      </c>
+      <c r="H38" s="136">
+        <v>63358.8</v>
+      </c>
+      <c r="I38" s="137"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B39" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="68">
+        <v>46228359</v>
+      </c>
+      <c r="E39" s="69">
+        <v>32521</v>
+      </c>
+      <c r="F39" s="69">
+        <v>6160.84</v>
+      </c>
+      <c r="G39" s="69">
+        <v>7736.37</v>
+      </c>
+      <c r="H39" s="133">
+        <v>46418.21</v>
+      </c>
+      <c r="I39" s="134"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B40" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="68">
+        <v>46228367</v>
+      </c>
+      <c r="E40" s="69">
+        <v>32521</v>
+      </c>
+      <c r="F40" s="69">
+        <v>6160.84</v>
+      </c>
+      <c r="G40" s="69">
+        <v>7736.37</v>
+      </c>
+      <c r="H40" s="133">
+        <v>46418.21</v>
+      </c>
+      <c r="I40" s="134"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B41" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="68">
+        <v>46228375</v>
+      </c>
+      <c r="E41" s="69">
+        <v>32995</v>
+      </c>
+      <c r="F41" s="69">
+        <v>6160.84</v>
+      </c>
+      <c r="G41" s="69">
+        <v>7831.17</v>
+      </c>
+      <c r="H41" s="133">
+        <v>46987.01</v>
+      </c>
+      <c r="I41" s="134"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B42" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="68">
+        <v>46228383</v>
+      </c>
+      <c r="E42" s="69">
+        <v>32521</v>
+      </c>
+      <c r="F42" s="69">
+        <v>6160.84</v>
+      </c>
+      <c r="G42" s="69">
+        <v>7736.37</v>
+      </c>
+      <c r="H42" s="133">
+        <v>46418.21</v>
+      </c>
+      <c r="I42" s="134"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B43" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="68">
+        <v>46228391</v>
+      </c>
+      <c r="E43" s="69">
+        <v>14210</v>
+      </c>
+      <c r="F43" s="69">
+        <v>1670.59</v>
+      </c>
+      <c r="G43" s="69">
+        <v>3176.12</v>
+      </c>
+      <c r="H43" s="133">
+        <v>19056.71</v>
+      </c>
+      <c r="I43" s="134"/>
+    </row>
+    <row r="44" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A44" s="71">
+        <v>45661</v>
+      </c>
+      <c r="B44" s="72">
+        <v>467004</v>
+      </c>
+      <c r="C44" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="73">
+        <v>46228409</v>
+      </c>
+      <c r="E44" s="74">
+        <v>5492.1</v>
+      </c>
+      <c r="F44" s="74">
+        <v>0</v>
+      </c>
+      <c r="G44" s="74">
+        <v>1098.42</v>
+      </c>
+      <c r="H44" s="136">
+        <v>6590.52</v>
+      </c>
+      <c r="I44" s="137"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="138" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="139"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="70">
+        <v>525142.19999999995</v>
+      </c>
+      <c r="F45" s="70">
+        <v>108461.58</v>
+      </c>
+      <c r="G45" s="70">
+        <v>126720.75</v>
+      </c>
+      <c r="H45" s="141">
+        <v>760324.53</v>
+      </c>
+      <c r="I45" s="142"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="139"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="141"/>
+      <c r="I46" s="142"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="138" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="139"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="141">
+        <v>68635.48</v>
+      </c>
+      <c r="I47" s="142"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="130"/>
+    </row>
+    <row r="49" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" s="132"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B50" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="68">
+        <v>858548</v>
+      </c>
+      <c r="E50" s="69">
+        <v>57585.8</v>
+      </c>
+      <c r="F50" s="69">
+        <v>179.4</v>
+      </c>
+      <c r="G50" s="69">
+        <v>0</v>
+      </c>
+      <c r="H50" s="133">
+        <v>57765.2</v>
+      </c>
+      <c r="I50" s="134"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B51" s="67">
+        <v>467201</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="68">
+        <v>858555</v>
+      </c>
+      <c r="E51" s="69">
+        <v>58514.6</v>
+      </c>
+      <c r="F51" s="69">
+        <v>179.4</v>
+      </c>
+      <c r="G51" s="69">
+        <v>0</v>
+      </c>
+      <c r="H51" s="133">
+        <v>58694</v>
+      </c>
+      <c r="I51" s="134"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="138" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="139"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="70">
+        <v>116100.4</v>
+      </c>
+      <c r="F52" s="70">
+        <v>358.8</v>
+      </c>
+      <c r="G52" s="70">
+        <v>0</v>
+      </c>
+      <c r="H52" s="141">
+        <v>116459.2</v>
+      </c>
+      <c r="I52" s="142"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="139"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="140"/>
+      <c r="H53" s="141"/>
+      <c r="I53" s="142"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="138" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="139"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="141"/>
+      <c r="I54" s="142"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="129"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="130"/>
+    </row>
+    <row r="56" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="I56" s="132"/>
+    </row>
+    <row r="57" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B57" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="68">
+        <v>6546</v>
+      </c>
+      <c r="E57" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F57" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G57" s="69">
+        <v>0</v>
+      </c>
+      <c r="H57" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I57" s="134"/>
+    </row>
+    <row r="58" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B58" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C58" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="68">
+        <v>6547</v>
+      </c>
+      <c r="E58" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F58" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G58" s="69">
+        <v>0</v>
+      </c>
+      <c r="H58" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I58" s="134"/>
+    </row>
+    <row r="59" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B59" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="68">
+        <v>6548</v>
+      </c>
+      <c r="E59" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F59" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G59" s="69">
+        <v>0</v>
+      </c>
+      <c r="H59" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I59" s="134"/>
+    </row>
+    <row r="60" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B60" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C60" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="68">
+        <v>6549</v>
+      </c>
+      <c r="E60" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F60" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G60" s="69">
+        <v>0</v>
+      </c>
+      <c r="H60" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I60" s="134"/>
+    </row>
+    <row r="61" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B61" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C61" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="68">
+        <v>6550</v>
+      </c>
+      <c r="E61" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F61" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G61" s="69">
+        <v>0</v>
+      </c>
+      <c r="H61" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I61" s="134"/>
+    </row>
+    <row r="62" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B62" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C62" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="68">
+        <v>6551</v>
+      </c>
+      <c r="E62" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F62" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G62" s="69">
+        <v>0</v>
+      </c>
+      <c r="H62" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I62" s="134"/>
+    </row>
+    <row r="63" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B63" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C63" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="68">
+        <v>6554</v>
+      </c>
+      <c r="E63" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F63" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G63" s="69">
+        <v>0</v>
+      </c>
+      <c r="H63" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I63" s="134"/>
+    </row>
+    <row r="64" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B64" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C64" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="68">
+        <v>6555</v>
+      </c>
+      <c r="E64" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F64" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G64" s="69">
+        <v>0</v>
+      </c>
+      <c r="H64" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I64" s="134"/>
+    </row>
+    <row r="65" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B65" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C65" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="68">
+        <v>6556</v>
+      </c>
+      <c r="E65" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F65" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G65" s="69">
+        <v>0</v>
+      </c>
+      <c r="H65" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I65" s="134"/>
+    </row>
+    <row r="66" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B66" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C66" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="68">
+        <v>6557</v>
+      </c>
+      <c r="E66" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F66" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G66" s="69">
+        <v>0</v>
+      </c>
+      <c r="H66" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I66" s="134"/>
+    </row>
+    <row r="67" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B67" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C67" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="68">
+        <v>6558</v>
+      </c>
+      <c r="E67" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F67" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G67" s="69">
+        <v>0</v>
+      </c>
+      <c r="H67" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I67" s="134"/>
+    </row>
+    <row r="68" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B68" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C68" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="68">
+        <v>6559</v>
+      </c>
+      <c r="E68" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F68" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G68" s="69">
+        <v>0</v>
+      </c>
+      <c r="H68" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I68" s="134"/>
+    </row>
+    <row r="69" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B69" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C69" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="68">
+        <v>6570</v>
+      </c>
+      <c r="E69" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F69" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G69" s="69">
+        <v>0</v>
+      </c>
+      <c r="H69" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I69" s="134"/>
+    </row>
+    <row r="70" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B70" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C70" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="68">
+        <v>6571</v>
+      </c>
+      <c r="E70" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F70" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G70" s="69">
+        <v>0</v>
+      </c>
+      <c r="H70" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I70" s="134"/>
+    </row>
+    <row r="71" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="66">
+        <v>45661</v>
+      </c>
+      <c r="B71" s="67">
+        <v>467004</v>
+      </c>
+      <c r="C71" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" s="68">
+        <v>6572</v>
+      </c>
+      <c r="E71" s="69">
+        <v>16251.6</v>
+      </c>
+      <c r="F71" s="69">
+        <v>1883.5</v>
+      </c>
+      <c r="G71" s="69">
+        <v>0</v>
+      </c>
+      <c r="H71" s="133">
+        <v>18135.099999999999</v>
+      </c>
+      <c r="I71" s="134"/>
+    </row>
+    <row r="72" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="138" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="139"/>
+      <c r="C72" s="139"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="70">
+        <v>243774</v>
+      </c>
+      <c r="F72" s="70">
+        <v>28252.5</v>
+      </c>
+      <c r="G72" s="70">
+        <v>0</v>
+      </c>
+      <c r="H72" s="141">
+        <v>272026.5</v>
+      </c>
+      <c r="I72" s="142"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="139"/>
+      <c r="C73" s="139"/>
+      <c r="D73" s="139"/>
+      <c r="E73" s="139"/>
+      <c r="F73" s="139"/>
+      <c r="G73" s="140"/>
+      <c r="H73" s="141"/>
+      <c r="I73" s="142"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="138" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="139"/>
+      <c r="C74" s="139"/>
+      <c r="D74" s="139"/>
+      <c r="E74" s="139"/>
+      <c r="F74" s="139"/>
+      <c r="G74" s="140"/>
+      <c r="H74" s="141"/>
+      <c r="I74" s="142"/>
+    </row>
+    <row r="76" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="128" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="130"/>
+      <c r="C76" s="141">
+        <v>1022089.48</v>
+      </c>
+      <c r="D76" s="142"/>
+      <c r="E76" s="128"/>
+      <c r="F76" s="129"/>
+      <c r="G76" s="129"/>
+      <c r="H76" s="129"/>
+      <c r="I76" s="130"/>
+    </row>
+    <row r="77" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="128" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="130"/>
+      <c r="C77" s="141">
+        <v>388485.7</v>
+      </c>
+      <c r="D77" s="142"/>
+      <c r="E77" s="128" t="s">
+        <v>168</v>
+      </c>
+      <c r="F77" s="130"/>
+      <c r="G77" s="141"/>
+      <c r="H77" s="143"/>
+      <c r="I77" s="142"/>
+    </row>
+    <row r="78" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="130"/>
+      <c r="C78" s="141">
+        <v>633603.78</v>
+      </c>
+      <c r="D78" s="142"/>
+      <c r="E78" s="128"/>
+      <c r="F78" s="130"/>
+      <c r="G78" s="141"/>
+      <c r="H78" s="143"/>
+      <c r="I78" s="142"/>
+    </row>
+    <row r="79" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="130"/>
+      <c r="C79" s="141"/>
+      <c r="D79" s="142"/>
+      <c r="E79" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" s="130"/>
+      <c r="G79" s="141"/>
+      <c r="H79" s="143"/>
+      <c r="I79" s="142"/>
+    </row>
+    <row r="80" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="128" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" s="130"/>
+      <c r="C80" s="141"/>
+      <c r="D80" s="142"/>
+      <c r="E80" s="128" t="s">
+        <v>173</v>
+      </c>
+      <c r="F80" s="130"/>
+      <c r="G80" s="141"/>
+      <c r="H80" s="143"/>
+      <c r="I80" s="142"/>
+    </row>
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="128" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="130"/>
+      <c r="C81" s="141"/>
+      <c r="D81" s="142"/>
+      <c r="E81" s="128"/>
+      <c r="F81" s="130"/>
+      <c r="G81" s="141"/>
+      <c r="H81" s="143"/>
+      <c r="I81" s="142"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="130"/>
+      <c r="C82" s="141">
+        <v>126720.75</v>
+      </c>
+      <c r="D82" s="142"/>
+      <c r="E82" s="128"/>
+      <c r="F82" s="129"/>
+      <c r="G82" s="129"/>
+      <c r="H82" s="129"/>
+      <c r="I82" s="130"/>
+    </row>
+    <row r="83" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="128" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" s="130"/>
+      <c r="C83" s="141">
+        <v>1148810.23</v>
+      </c>
+      <c r="D83" s="142"/>
+      <c r="E83" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="F83" s="130"/>
+      <c r="G83" s="141">
+        <v>-7167364.0999999996</v>
+      </c>
+      <c r="H83" s="143"/>
+      <c r="I83" s="142"/>
+    </row>
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="128"/>
+      <c r="B84" s="130"/>
+      <c r="C84" s="141"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="128" t="s">
+        <v>177</v>
+      </c>
+      <c r="F84" s="130"/>
+      <c r="G84" s="141">
+        <v>0</v>
+      </c>
+      <c r="H84" s="143"/>
+      <c r="I84" s="142"/>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="145"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="145"/>
+      <c r="D85" s="145"/>
+      <c r="E85" s="145"/>
+      <c r="F85" s="145"/>
+      <c r="G85" s="145"/>
+      <c r="H85" s="145"/>
+      <c r="I85" s="145"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="146" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" s="146"/>
+      <c r="C86" s="146"/>
+      <c r="D86" s="146"/>
+      <c r="E86" s="146"/>
+      <c r="F86" s="146"/>
+      <c r="G86" s="146"/>
+      <c r="H86" s="146"/>
+      <c r="I86" s="146"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="144"/>
+      <c r="B87" s="144"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="144"/>
+      <c r="E87" s="144"/>
+      <c r="F87" s="144"/>
+      <c r="G87" s="144"/>
+      <c r="H87" s="144"/>
+      <c r="I87" s="144"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A14:I74" xr:uid="{0AA4BB56-4E10-4661-8D08-A1EF1778EA27}">
+    <filterColumn colId="5">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+    <filterColumn colId="7" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="122">
+    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:I82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:I76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637E8959-69C9-4C2B-877C-423087276BDD}">
+  <dimension ref="B1:Y15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
+    <col min="20" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" s="100" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="J12" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="K12" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="T12" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>41941402</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>35420</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="9">
+        <v>31766</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="9">
+        <v>3654</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9">
+        <v>139.65</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="16">
+        <v>5639846</v>
+      </c>
+      <c r="S13" s="16">
+        <v>8116733</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>41941402</v>
+      </c>
+      <c r="D14" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9">
+        <v>449360</v>
+      </c>
+      <c r="F14" s="16">
+        <v>133</v>
+      </c>
+      <c r="G14" s="9">
+        <v>421900.7</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="9">
+        <v>27459.3</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="9">
+        <v>805.35</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="16">
+        <v>8141162</v>
+      </c>
+      <c r="S14" s="16">
+        <v>8141162</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>41941402</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
+      <c r="E15" s="9">
+        <v>304290</v>
+      </c>
+      <c r="F15" s="2">
+        <v>22</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="9">
+        <v>304290</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9">
+        <v>516.9</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="16">
+        <v>8134396</v>
+      </c>
+      <c r="S15" s="16">
+        <v>8134396</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/doc/descriptions/Стоимость перевозок.xlsx
+++ b/doc/descriptions/Стоимость перевозок.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF6C0083-6B71-495E-A234-732965EE4C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D36D7F-1319-4438-846C-3910842DC530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{1B61F87A-92F8-4A0C-BB0B-D3EB25E1EAAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{1B61F87A-92F8-4A0C-BB0B-D3EB25E1EAAE}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Перечень" sheetId="18" r:id="rId8"/>
     <sheet name="5" sheetId="20" r:id="rId9"/>
     <sheet name="Правки" sheetId="19" r:id="rId10"/>
+    <sheet name="Лист1" sheetId="21" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1,2'!$H$31:$V$147</definedName>
@@ -136,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="255">
   <si>
     <t>№ п.п.</t>
   </si>
@@ -951,7 +952,22 @@
     <t>Ошибки в словах с расчетом и выбрано</t>
   </si>
   <si>
-    <t>Удалит столбец «дата расчета» их два одинаковых</t>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Нет сумм по столбцам</t>
+  </si>
+  <si>
+    <t>Дает делать исправления в форме "Расчет стоимости по отправке" в поле  ""Тариф по договору, грн" при введённом номере перечня (сверке)</t>
+  </si>
+  <si>
+    <t>Нет столбца "Тариф по договору, грн", "Разница"</t>
+  </si>
+  <si>
+    <t>Есть возможность добавить выделение строки в ручном режиме (став мышкой)  в "Сверке накладных"?</t>
+  </si>
+  <si>
+    <t>Удалить столбец  "Дата отправления на АМКР"</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1177,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1207,6 +1223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCBE3F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,7 +1579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1766,9 +1788,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1882,6 +1901,11 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2574,13 +2598,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2635,13 +2659,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2696,13 +2720,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2733,8 +2757,191 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="228600" y="4229100"/>
-          <a:ext cx="7048500" cy="1009650"/>
+          <a:off x="228600" y="7419975"/>
+          <a:ext cx="4514850" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5186694E-07C0-4098-BF39-688E9066665C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600075" y="9020175"/>
+          <a:ext cx="3876675" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1ED487F-E0D2-4DBE-BFC8-44865ABCA868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4924426" y="7334250"/>
+          <a:ext cx="4895850" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C34018-5C91-45F6-89AC-EA802F3E0D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="1352550"/>
+          <a:ext cx="10315575" cy="2590800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6112,16 +6319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>627674</xdr:colOff>
+      <xdr:colOff>475274</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>17582</xdr:rowOff>
+      <xdr:rowOff>84257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6144,7 +6351,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10658475" y="3829050"/>
+          <a:off x="10810875" y="3162300"/>
           <a:ext cx="1932599" cy="646232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6157,15 +6364,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6195,7 +6402,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13106400" y="3057525"/>
+          <a:off x="12858750" y="3181350"/>
           <a:ext cx="1962150" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6835,7 +7042,7 @@
   </sheetPr>
   <dimension ref="B2:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
@@ -7085,25 +7292,25 @@
       <c r="R18" s="22"/>
     </row>
     <row r="19" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="111"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="110"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
@@ -7418,25 +7625,25 @@
       <c r="R34" s="22"/>
     </row>
     <row r="35" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="114"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="112"/>
+      <c r="R35" s="113"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
@@ -7470,10 +7677,10 @@
     </row>
     <row r="38" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="23"/>
-      <c r="C38" s="115">
+      <c r="C38" s="114">
         <v>40842023</v>
       </c>
-      <c r="D38" s="116"/>
+      <c r="D38" s="115"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="23"/>
@@ -7754,10 +7961,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F95887-A135-4525-A0DF-37ED5E0D06DE}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A2:P76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7765,108 +7972,199 @@
     <col min="1" max="1" width="9.140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="98">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="98">
         <v>1</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B2" s="146" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="98">
+        <v>2</v>
+      </c>
+      <c r="B3" s="146" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="98">
+        <v>3</v>
+      </c>
+      <c r="B4" s="146" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="98">
+        <v>4</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="98">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="98">
+        <v>6</v>
+      </c>
+      <c r="B23" s="147" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="107"/>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="107"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="107"/>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="107"/>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="107"/>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="107"/>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="107"/>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="107"/>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="98">
-        <v>2</v>
-      </c>
-      <c r="B10" s="107" t="s">
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="146"/>
+    </row>
+    <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="107"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="107"/>
+    </row>
+    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="107"/>
+    </row>
+    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="107"/>
+    </row>
+    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="107"/>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="107"/>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="107"/>
+    </row>
+    <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="98">
+        <v>7</v>
+      </c>
+      <c r="B31" s="147" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="107"/>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="107"/>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="107"/>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="107"/>
-    </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="98">
-        <v>3</v>
-      </c>
-      <c r="B15" s="107" t="s">
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+    </row>
+    <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="107"/>
+    </row>
+    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="107"/>
+    </row>
+    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B34" s="107"/>
+    </row>
+    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="107"/>
+    </row>
+    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="98">
+        <v>8</v>
+      </c>
+      <c r="B36" s="147" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="107"/>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="107"/>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="107"/>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="107"/>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="107"/>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="107"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="98">
-        <v>4</v>
-      </c>
-      <c r="B22" s="108" t="s">
+    <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="107"/>
+    </row>
+    <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B38" s="107"/>
+    </row>
+    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B39" s="107"/>
+    </row>
+    <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B40" s="107"/>
+    </row>
+    <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="107"/>
+    </row>
+    <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="107"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="98">
+        <v>9</v>
+      </c>
+      <c r="B43" s="148" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="107"/>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="107"/>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="107"/>
-    </row>
-    <row r="55" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B55" s="97"/>
+    <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="107"/>
+    </row>
+    <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="107"/>
+    </row>
+    <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B46" s="107"/>
+    </row>
+    <row r="76" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B76" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9275FFE9-1E11-460F-AFA1-80F3D6B51E2B}">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8004,25 +8302,25 @@
       <c r="R11" s="22"/>
     </row>
     <row r="12" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="111"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="110"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
@@ -8232,25 +8530,25 @@
       <c r="R21" s="22"/>
     </row>
     <row r="22" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="114"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="113"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
@@ -8284,10 +8582,10 @@
     </row>
     <row r="25" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="23"/>
-      <c r="C25" s="115">
+      <c r="C25" s="114">
         <v>40842023</v>
       </c>
-      <c r="D25" s="116"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="23"/>
@@ -13749,27 +14047,27 @@
     </row>
     <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="111"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="110"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
@@ -14080,7 +14378,7 @@
   </sheetPr>
   <dimension ref="B2:AE50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
@@ -14488,25 +14786,25 @@
       <c r="R31" s="22"/>
     </row>
     <row r="32" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="118"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="119"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="117"/>
+      <c r="R32" s="118"/>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
@@ -14883,7 +15181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A933ABDA-D0A7-40C6-8AB1-347A246624A9}">
   <dimension ref="A2:AE46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -15256,25 +15554,25 @@
       <c r="R23" s="22"/>
     </row>
     <row r="24" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="119"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="118"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
@@ -16426,8 +16724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3EF74D-9D25-4A78-8FF3-5754B2107C27}">
   <dimension ref="B1:AD39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16944,8 +17242,8 @@
       <c r="E31" s="24"/>
     </row>
     <row r="32" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="115"/>
-      <c r="C32" s="116"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
@@ -17239,8 +17537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A4C788-B890-42BC-B7B1-0E50D48C46D3}">
   <dimension ref="B3:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17354,8 +17652,8 @@
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="116"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="115"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="T10" s="24"/>
@@ -17827,10 +18125,10 @@
       <c r="C26" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="120" t="s">
+      <c r="G26" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="121"/>
+      <c r="H26" s="120"/>
       <c r="I26" s="92">
         <f>SUM(I24:I25)</f>
         <v>18465</v>
@@ -17900,7 +18198,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -17916,149 +18214,149 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="123"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="126"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="123"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="125"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="122"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
     </row>
     <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123" t="s">
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123" t="s">
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="126"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-    </row>
-    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="129"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
         <v>149</v>
       </c>
@@ -18080,12 +18378,12 @@
       <c r="G14" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="131" t="s">
+      <c r="H14" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="132"/>
-    </row>
-    <row r="15" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="131"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66">
         <v>45661</v>
       </c>
@@ -18107,12 +18405,12 @@
       <c r="G15" s="69">
         <v>1196.3599999999999</v>
       </c>
-      <c r="H15" s="133">
+      <c r="H15" s="132">
         <v>7178.16</v>
       </c>
-      <c r="I15" s="134"/>
-    </row>
-    <row r="16" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="133"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66">
         <v>45661</v>
       </c>
@@ -18134,12 +18432,12 @@
       <c r="G16" s="69">
         <v>1196.3599999999999</v>
       </c>
-      <c r="H16" s="133">
+      <c r="H16" s="132">
         <v>7178.16</v>
       </c>
-      <c r="I16" s="134"/>
-    </row>
-    <row r="17" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="133"/>
+    </row>
+    <row r="17" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="66">
         <v>45661</v>
       </c>
@@ -18161,12 +18459,12 @@
       <c r="G17" s="69">
         <v>1481.26</v>
       </c>
-      <c r="H17" s="133">
+      <c r="H17" s="132">
         <v>8887.56</v>
       </c>
-      <c r="I17" s="134"/>
-    </row>
-    <row r="18" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="133"/>
+    </row>
+    <row r="18" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="66">
         <v>45661</v>
       </c>
@@ -18188,12 +18486,12 @@
       <c r="G18" s="69">
         <v>1481.26</v>
       </c>
-      <c r="H18" s="133">
+      <c r="H18" s="132">
         <v>8887.56</v>
       </c>
-      <c r="I18" s="134"/>
-    </row>
-    <row r="19" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="133"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66">
         <v>45661</v>
       </c>
@@ -18215,12 +18513,12 @@
       <c r="G19" s="69">
         <v>1481.26</v>
       </c>
-      <c r="H19" s="133">
+      <c r="H19" s="132">
         <v>8887.56</v>
       </c>
-      <c r="I19" s="134"/>
-    </row>
-    <row r="20" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="133"/>
+    </row>
+    <row r="20" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="66">
         <v>45661</v>
       </c>
@@ -18242,12 +18540,12 @@
       <c r="G20" s="69">
         <v>1481.26</v>
       </c>
-      <c r="H20" s="133">
+      <c r="H20" s="132">
         <v>8887.56</v>
       </c>
-      <c r="I20" s="134"/>
-    </row>
-    <row r="21" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="133"/>
+    </row>
+    <row r="21" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66">
         <v>45661</v>
       </c>
@@ -18269,12 +18567,12 @@
       <c r="G21" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H21" s="133">
+      <c r="H21" s="132">
         <v>10567.44</v>
       </c>
-      <c r="I21" s="134"/>
-    </row>
-    <row r="22" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="133"/>
+    </row>
+    <row r="22" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="66">
         <v>45661</v>
       </c>
@@ -18296,12 +18594,12 @@
       <c r="G22" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H22" s="133">
+      <c r="H22" s="132">
         <v>10567.44</v>
       </c>
-      <c r="I22" s="134"/>
-    </row>
-    <row r="23" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="133"/>
+    </row>
+    <row r="23" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66">
         <v>45661</v>
       </c>
@@ -18323,12 +18621,12 @@
       <c r="G23" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H23" s="133">
+      <c r="H23" s="132">
         <v>10567.44</v>
       </c>
-      <c r="I23" s="134"/>
-    </row>
-    <row r="24" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="133"/>
+    </row>
+    <row r="24" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66">
         <v>45661</v>
       </c>
@@ -18350,12 +18648,12 @@
       <c r="G24" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H24" s="133">
+      <c r="H24" s="132">
         <v>10567.44</v>
       </c>
-      <c r="I24" s="134"/>
-    </row>
-    <row r="25" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="133"/>
+    </row>
+    <row r="25" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66">
         <v>45661</v>
       </c>
@@ -18377,12 +18675,12 @@
       <c r="G25" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H25" s="133">
+      <c r="H25" s="132">
         <v>10567.44</v>
       </c>
-      <c r="I25" s="134"/>
-    </row>
-    <row r="26" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="133"/>
+    </row>
+    <row r="26" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66">
         <v>45661</v>
       </c>
@@ -18404,12 +18702,12 @@
       <c r="G26" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H26" s="133">
+      <c r="H26" s="132">
         <v>10567.44</v>
       </c>
-      <c r="I26" s="134"/>
-    </row>
-    <row r="27" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="133"/>
+    </row>
+    <row r="27" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="66">
         <v>45661</v>
       </c>
@@ -18431,12 +18729,12 @@
       <c r="G27" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H27" s="133">
+      <c r="H27" s="132">
         <v>10567.44</v>
       </c>
-      <c r="I27" s="134"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="133"/>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66">
         <v>45661</v>
       </c>
@@ -18458,12 +18756,12 @@
       <c r="G28" s="69">
         <v>3176.12</v>
       </c>
-      <c r="H28" s="133">
+      <c r="H28" s="132">
         <v>19056.71</v>
       </c>
-      <c r="I28" s="134"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="133"/>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66">
         <v>45661</v>
       </c>
@@ -18485,12 +18783,12 @@
       <c r="G29" s="69">
         <v>3176.12</v>
       </c>
-      <c r="H29" s="133">
+      <c r="H29" s="132">
         <v>19056.71</v>
       </c>
-      <c r="I29" s="134"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="133"/>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66">
         <v>45661</v>
       </c>
@@ -18512,12 +18810,12 @@
       <c r="G30" s="69">
         <v>7831.17</v>
       </c>
-      <c r="H30" s="133">
+      <c r="H30" s="132">
         <v>46987.01</v>
       </c>
-      <c r="I30" s="134"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="133"/>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66">
         <v>45661</v>
       </c>
@@ -18539,12 +18837,12 @@
       <c r="G31" s="69">
         <v>3176.12</v>
       </c>
-      <c r="H31" s="133">
+      <c r="H31" s="132">
         <v>19056.71</v>
       </c>
-      <c r="I31" s="134"/>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="133"/>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="66">
         <v>45661</v>
       </c>
@@ -18566,12 +18864,12 @@
       <c r="G32" s="69">
         <v>8333.48</v>
       </c>
-      <c r="H32" s="133">
+      <c r="H32" s="132">
         <v>50000.9</v>
       </c>
-      <c r="I32" s="134"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="133"/>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="66">
         <v>45661</v>
       </c>
@@ -18593,12 +18891,12 @@
       <c r="G33" s="69">
         <v>6556.5</v>
       </c>
-      <c r="H33" s="133">
+      <c r="H33" s="132">
         <v>39339.019999999997</v>
       </c>
-      <c r="I33" s="134"/>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="133"/>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="66">
         <v>45661</v>
       </c>
@@ -18620,12 +18918,12 @@
       <c r="G34" s="69">
         <v>8434.68</v>
       </c>
-      <c r="H34" s="133">
+      <c r="H34" s="132">
         <v>50608.1</v>
       </c>
-      <c r="I34" s="134"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="133"/>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="66">
         <v>45661</v>
       </c>
@@ -18647,12 +18945,12 @@
       <c r="G35" s="69">
         <v>6479.5</v>
       </c>
-      <c r="H35" s="133">
+      <c r="H35" s="132">
         <v>38877.019999999997</v>
       </c>
-      <c r="I35" s="134"/>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="133"/>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="66">
         <v>45661</v>
       </c>
@@ -18674,12 +18972,12 @@
       <c r="G36" s="69">
         <v>6479.5</v>
       </c>
-      <c r="H36" s="133">
+      <c r="H36" s="132">
         <v>38877.019999999997</v>
       </c>
-      <c r="I36" s="134"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="133"/>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="66">
         <v>45661</v>
       </c>
@@ -18701,12 +18999,12 @@
       <c r="G37" s="69">
         <v>6556.5</v>
       </c>
-      <c r="H37" s="133">
+      <c r="H37" s="132">
         <v>39339.019999999997</v>
       </c>
-      <c r="I37" s="134"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I37" s="133"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="71">
         <v>45661</v>
       </c>
@@ -18728,12 +19026,12 @@
       <c r="G38" s="74">
         <v>10559.8</v>
       </c>
-      <c r="H38" s="136">
+      <c r="H38" s="135">
         <v>63358.8</v>
       </c>
-      <c r="I38" s="137"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="136"/>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="66">
         <v>45661</v>
       </c>
@@ -18755,12 +19053,12 @@
       <c r="G39" s="69">
         <v>7736.37</v>
       </c>
-      <c r="H39" s="133">
+      <c r="H39" s="132">
         <v>46418.21</v>
       </c>
-      <c r="I39" s="134"/>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="133"/>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="66">
         <v>45661</v>
       </c>
@@ -18782,12 +19080,12 @@
       <c r="G40" s="69">
         <v>7736.37</v>
       </c>
-      <c r="H40" s="133">
+      <c r="H40" s="132">
         <v>46418.21</v>
       </c>
-      <c r="I40" s="134"/>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="133"/>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="66">
         <v>45661</v>
       </c>
@@ -18809,12 +19107,12 @@
       <c r="G41" s="69">
         <v>7831.17</v>
       </c>
-      <c r="H41" s="133">
+      <c r="H41" s="132">
         <v>46987.01</v>
       </c>
-      <c r="I41" s="134"/>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="133"/>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="66">
         <v>45661</v>
       </c>
@@ -18836,12 +19134,12 @@
       <c r="G42" s="69">
         <v>7736.37</v>
       </c>
-      <c r="H42" s="133">
+      <c r="H42" s="132">
         <v>46418.21</v>
       </c>
-      <c r="I42" s="134"/>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="133"/>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="66">
         <v>45661</v>
       </c>
@@ -18863,12 +19161,12 @@
       <c r="G43" s="69">
         <v>3176.12</v>
       </c>
-      <c r="H43" s="133">
+      <c r="H43" s="132">
         <v>19056.71</v>
       </c>
-      <c r="I43" s="134"/>
-    </row>
-    <row r="44" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="I43" s="133"/>
+    </row>
+    <row r="44" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A44" s="71">
         <v>45661</v>
       </c>
@@ -18890,18 +19188,18 @@
       <c r="G44" s="74">
         <v>1098.42</v>
       </c>
-      <c r="H44" s="136">
+      <c r="H44" s="135">
         <v>6590.52</v>
       </c>
-      <c r="I44" s="137"/>
+      <c r="I44" s="136"/>
     </row>
     <row r="45" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="138" t="s">
+      <c r="A45" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="139"/>
-      <c r="C45" s="139"/>
-      <c r="D45" s="140"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="139"/>
       <c r="E45" s="70">
         <v>525142.19999999995</v>
       </c>
@@ -18911,53 +19209,53 @@
       <c r="G45" s="70">
         <v>126720.75</v>
       </c>
-      <c r="H45" s="141">
+      <c r="H45" s="140">
         <v>760324.53</v>
       </c>
-      <c r="I45" s="142"/>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="138" t="s">
+      <c r="I45" s="141"/>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="139"/>
-      <c r="C46" s="139"/>
-      <c r="D46" s="139"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="141"/>
-      <c r="I46" s="142"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="141"/>
     </row>
     <row r="47" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="138" t="s">
+      <c r="A47" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="139"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="141">
+      <c r="B47" s="138"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="140">
         <v>68635.48</v>
       </c>
-      <c r="I47" s="142"/>
+      <c r="I47" s="141"/>
     </row>
     <row r="48" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="128" t="s">
+      <c r="A48" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="129"/>
-      <c r="C48" s="129"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="130"/>
-    </row>
-    <row r="49" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="129"/>
+    </row>
+    <row r="49" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="65" t="s">
         <v>149</v>
       </c>
@@ -18979,12 +19277,12 @@
       <c r="G49" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="H49" s="131" t="s">
+      <c r="H49" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="I49" s="132"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="131"/>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="66">
         <v>45661</v>
       </c>
@@ -19006,12 +19304,12 @@
       <c r="G50" s="69">
         <v>0</v>
       </c>
-      <c r="H50" s="133">
+      <c r="H50" s="132">
         <v>57765.2</v>
       </c>
-      <c r="I50" s="134"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="133"/>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="66">
         <v>45661</v>
       </c>
@@ -19033,18 +19331,18 @@
       <c r="G51" s="69">
         <v>0</v>
       </c>
-      <c r="H51" s="133">
+      <c r="H51" s="132">
         <v>58694</v>
       </c>
-      <c r="I51" s="134"/>
+      <c r="I51" s="133"/>
     </row>
     <row r="52" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="138" t="s">
+      <c r="A52" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="139"/>
-      <c r="C52" s="139"/>
-      <c r="D52" s="140"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="139"/>
       <c r="E52" s="70">
         <v>116100.4</v>
       </c>
@@ -19054,51 +19352,51 @@
       <c r="G52" s="70">
         <v>0</v>
       </c>
-      <c r="H52" s="141">
+      <c r="H52" s="140">
         <v>116459.2</v>
       </c>
-      <c r="I52" s="142"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="138" t="s">
+      <c r="I52" s="141"/>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="139"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="140"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="142"/>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="138" t="s">
+      <c r="B53" s="138"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="138"/>
+      <c r="F53" s="138"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="141"/>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="139"/>
-      <c r="C54" s="139"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="142"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="138"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="138"/>
+      <c r="F54" s="138"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="141"/>
     </row>
     <row r="55" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="128" t="s">
+      <c r="A55" s="127" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="129"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="130"/>
-    </row>
-    <row r="56" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="129"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="s">
         <v>149</v>
       </c>
@@ -19120,12 +19418,12 @@
       <c r="G56" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="H56" s="131" t="s">
+      <c r="H56" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="I56" s="132"/>
-    </row>
-    <row r="57" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="131"/>
+    </row>
+    <row r="57" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="66">
         <v>45661</v>
       </c>
@@ -19147,12 +19445,12 @@
       <c r="G57" s="69">
         <v>0</v>
       </c>
-      <c r="H57" s="133">
+      <c r="H57" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I57" s="134"/>
-    </row>
-    <row r="58" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="133"/>
+    </row>
+    <row r="58" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="66">
         <v>45661</v>
       </c>
@@ -19174,12 +19472,12 @@
       <c r="G58" s="69">
         <v>0</v>
       </c>
-      <c r="H58" s="133">
+      <c r="H58" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I58" s="134"/>
-    </row>
-    <row r="59" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="133"/>
+    </row>
+    <row r="59" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="66">
         <v>45661</v>
       </c>
@@ -19201,12 +19499,12 @@
       <c r="G59" s="69">
         <v>0</v>
       </c>
-      <c r="H59" s="133">
+      <c r="H59" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I59" s="134"/>
-    </row>
-    <row r="60" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="133"/>
+    </row>
+    <row r="60" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="66">
         <v>45661</v>
       </c>
@@ -19228,12 +19526,12 @@
       <c r="G60" s="69">
         <v>0</v>
       </c>
-      <c r="H60" s="133">
+      <c r="H60" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I60" s="134"/>
-    </row>
-    <row r="61" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="133"/>
+    </row>
+    <row r="61" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="66">
         <v>45661</v>
       </c>
@@ -19255,12 +19553,12 @@
       <c r="G61" s="69">
         <v>0</v>
       </c>
-      <c r="H61" s="133">
+      <c r="H61" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I61" s="134"/>
-    </row>
-    <row r="62" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="133"/>
+    </row>
+    <row r="62" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="66">
         <v>45661</v>
       </c>
@@ -19282,12 +19580,12 @@
       <c r="G62" s="69">
         <v>0</v>
       </c>
-      <c r="H62" s="133">
+      <c r="H62" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I62" s="134"/>
-    </row>
-    <row r="63" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="133"/>
+    </row>
+    <row r="63" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="66">
         <v>45661</v>
       </c>
@@ -19309,12 +19607,12 @@
       <c r="G63" s="69">
         <v>0</v>
       </c>
-      <c r="H63" s="133">
+      <c r="H63" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I63" s="134"/>
-    </row>
-    <row r="64" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="133"/>
+    </row>
+    <row r="64" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="66">
         <v>45661</v>
       </c>
@@ -19336,12 +19634,12 @@
       <c r="G64" s="69">
         <v>0</v>
       </c>
-      <c r="H64" s="133">
+      <c r="H64" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I64" s="134"/>
-    </row>
-    <row r="65" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="133"/>
+    </row>
+    <row r="65" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="66">
         <v>45661</v>
       </c>
@@ -19363,12 +19661,12 @@
       <c r="G65" s="69">
         <v>0</v>
       </c>
-      <c r="H65" s="133">
+      <c r="H65" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I65" s="134"/>
-    </row>
-    <row r="66" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="133"/>
+    </row>
+    <row r="66" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="66">
         <v>45661</v>
       </c>
@@ -19390,12 +19688,12 @@
       <c r="G66" s="69">
         <v>0</v>
       </c>
-      <c r="H66" s="133">
+      <c r="H66" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I66" s="134"/>
-    </row>
-    <row r="67" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="133"/>
+    </row>
+    <row r="67" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="66">
         <v>45661</v>
       </c>
@@ -19417,12 +19715,12 @@
       <c r="G67" s="69">
         <v>0</v>
       </c>
-      <c r="H67" s="133">
+      <c r="H67" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I67" s="134"/>
-    </row>
-    <row r="68" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="133"/>
+    </row>
+    <row r="68" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="66">
         <v>45661</v>
       </c>
@@ -19444,12 +19742,12 @@
       <c r="G68" s="69">
         <v>0</v>
       </c>
-      <c r="H68" s="133">
+      <c r="H68" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I68" s="134"/>
-    </row>
-    <row r="69" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="133"/>
+    </row>
+    <row r="69" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="66">
         <v>45661</v>
       </c>
@@ -19471,12 +19769,12 @@
       <c r="G69" s="69">
         <v>0</v>
       </c>
-      <c r="H69" s="133">
+      <c r="H69" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I69" s="134"/>
-    </row>
-    <row r="70" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="133"/>
+    </row>
+    <row r="70" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="66">
         <v>45661</v>
       </c>
@@ -19498,12 +19796,12 @@
       <c r="G70" s="69">
         <v>0</v>
       </c>
-      <c r="H70" s="133">
+      <c r="H70" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I70" s="134"/>
-    </row>
-    <row r="71" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="133"/>
+    </row>
+    <row r="71" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="66">
         <v>45661</v>
       </c>
@@ -19525,18 +19823,18 @@
       <c r="G71" s="69">
         <v>0</v>
       </c>
-      <c r="H71" s="133">
+      <c r="H71" s="132">
         <v>18135.099999999999</v>
       </c>
-      <c r="I71" s="134"/>
+      <c r="I71" s="133"/>
     </row>
     <row r="72" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="138" t="s">
+      <c r="A72" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="B72" s="139"/>
-      <c r="C72" s="139"/>
-      <c r="D72" s="140"/>
+      <c r="B72" s="138"/>
+      <c r="C72" s="138"/>
+      <c r="D72" s="139"/>
       <c r="E72" s="70">
         <v>243774</v>
       </c>
@@ -19546,210 +19844,210 @@
       <c r="G72" s="70">
         <v>0</v>
       </c>
-      <c r="H72" s="141">
+      <c r="H72" s="140">
         <v>272026.5</v>
       </c>
-      <c r="I72" s="142"/>
-    </row>
-    <row r="73" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="138" t="s">
+      <c r="I72" s="141"/>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="B73" s="139"/>
-      <c r="C73" s="139"/>
-      <c r="D73" s="139"/>
-      <c r="E73" s="139"/>
-      <c r="F73" s="139"/>
-      <c r="G73" s="140"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="142"/>
-    </row>
-    <row r="74" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="138" t="s">
+      <c r="B73" s="138"/>
+      <c r="C73" s="138"/>
+      <c r="D73" s="138"/>
+      <c r="E73" s="138"/>
+      <c r="F73" s="138"/>
+      <c r="G73" s="139"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="141"/>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="B74" s="139"/>
-      <c r="C74" s="139"/>
-      <c r="D74" s="139"/>
-      <c r="E74" s="139"/>
-      <c r="F74" s="139"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="142"/>
+      <c r="B74" s="138"/>
+      <c r="C74" s="138"/>
+      <c r="D74" s="138"/>
+      <c r="E74" s="138"/>
+      <c r="F74" s="138"/>
+      <c r="G74" s="139"/>
+      <c r="H74" s="140"/>
+      <c r="I74" s="141"/>
     </row>
     <row r="76" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="128" t="s">
+      <c r="A76" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="B76" s="130"/>
-      <c r="C76" s="141">
+      <c r="B76" s="129"/>
+      <c r="C76" s="140">
         <v>1022089.48</v>
       </c>
-      <c r="D76" s="142"/>
-      <c r="E76" s="128"/>
-      <c r="F76" s="129"/>
-      <c r="G76" s="129"/>
-      <c r="H76" s="129"/>
-      <c r="I76" s="130"/>
+      <c r="D76" s="141"/>
+      <c r="E76" s="127"/>
+      <c r="F76" s="128"/>
+      <c r="G76" s="128"/>
+      <c r="H76" s="128"/>
+      <c r="I76" s="129"/>
     </row>
     <row r="77" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="128" t="s">
+      <c r="A77" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="B77" s="130"/>
-      <c r="C77" s="141">
+      <c r="B77" s="129"/>
+      <c r="C77" s="140">
         <v>388485.7</v>
       </c>
-      <c r="D77" s="142"/>
-      <c r="E77" s="128" t="s">
+      <c r="D77" s="141"/>
+      <c r="E77" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="F77" s="130"/>
-      <c r="G77" s="141"/>
-      <c r="H77" s="143"/>
-      <c r="I77" s="142"/>
+      <c r="F77" s="129"/>
+      <c r="G77" s="140"/>
+      <c r="H77" s="142"/>
+      <c r="I77" s="141"/>
     </row>
     <row r="78" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="128" t="s">
+      <c r="A78" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="130"/>
-      <c r="C78" s="141">
+      <c r="B78" s="129"/>
+      <c r="C78" s="140">
         <v>633603.78</v>
       </c>
-      <c r="D78" s="142"/>
-      <c r="E78" s="128"/>
-      <c r="F78" s="130"/>
-      <c r="G78" s="141"/>
-      <c r="H78" s="143"/>
-      <c r="I78" s="142"/>
+      <c r="D78" s="141"/>
+      <c r="E78" s="127"/>
+      <c r="F78" s="129"/>
+      <c r="G78" s="140"/>
+      <c r="H78" s="142"/>
+      <c r="I78" s="141"/>
     </row>
     <row r="79" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="128" t="s">
+      <c r="A79" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="B79" s="130"/>
-      <c r="C79" s="141"/>
-      <c r="D79" s="142"/>
-      <c r="E79" s="128" t="s">
+      <c r="B79" s="129"/>
+      <c r="C79" s="140"/>
+      <c r="D79" s="141"/>
+      <c r="E79" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F79" s="130"/>
-      <c r="G79" s="141"/>
-      <c r="H79" s="143"/>
-      <c r="I79" s="142"/>
+      <c r="F79" s="129"/>
+      <c r="G79" s="140"/>
+      <c r="H79" s="142"/>
+      <c r="I79" s="141"/>
     </row>
     <row r="80" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="128" t="s">
+      <c r="A80" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="B80" s="130"/>
-      <c r="C80" s="141"/>
-      <c r="D80" s="142"/>
-      <c r="E80" s="128" t="s">
+      <c r="B80" s="129"/>
+      <c r="C80" s="140"/>
+      <c r="D80" s="141"/>
+      <c r="E80" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="F80" s="130"/>
-      <c r="G80" s="141"/>
-      <c r="H80" s="143"/>
-      <c r="I80" s="142"/>
+      <c r="F80" s="129"/>
+      <c r="G80" s="140"/>
+      <c r="H80" s="142"/>
+      <c r="I80" s="141"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="128" t="s">
+      <c r="A81" s="127" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="130"/>
-      <c r="C81" s="141"/>
-      <c r="D81" s="142"/>
-      <c r="E81" s="128"/>
-      <c r="F81" s="130"/>
-      <c r="G81" s="141"/>
-      <c r="H81" s="143"/>
-      <c r="I81" s="142"/>
+      <c r="B81" s="129"/>
+      <c r="C81" s="140"/>
+      <c r="D81" s="141"/>
+      <c r="E81" s="127"/>
+      <c r="F81" s="129"/>
+      <c r="G81" s="140"/>
+      <c r="H81" s="142"/>
+      <c r="I81" s="141"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="128" t="s">
+      <c r="A82" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="130"/>
-      <c r="C82" s="141">
+      <c r="B82" s="129"/>
+      <c r="C82" s="140">
         <v>126720.75</v>
       </c>
-      <c r="D82" s="142"/>
-      <c r="E82" s="128"/>
-      <c r="F82" s="129"/>
-      <c r="G82" s="129"/>
-      <c r="H82" s="129"/>
-      <c r="I82" s="130"/>
+      <c r="D82" s="141"/>
+      <c r="E82" s="127"/>
+      <c r="F82" s="128"/>
+      <c r="G82" s="128"/>
+      <c r="H82" s="128"/>
+      <c r="I82" s="129"/>
     </row>
     <row r="83" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="128" t="s">
+      <c r="A83" s="127" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="130"/>
-      <c r="C83" s="141">
+      <c r="B83" s="129"/>
+      <c r="C83" s="140">
         <v>1148810.23</v>
       </c>
-      <c r="D83" s="142"/>
-      <c r="E83" s="128" t="s">
+      <c r="D83" s="141"/>
+      <c r="E83" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="F83" s="130"/>
-      <c r="G83" s="141">
+      <c r="F83" s="129"/>
+      <c r="G83" s="140">
         <v>-7167364.0999999996</v>
       </c>
-      <c r="H83" s="143"/>
-      <c r="I83" s="142"/>
+      <c r="H83" s="142"/>
+      <c r="I83" s="141"/>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="128"/>
-      <c r="B84" s="130"/>
-      <c r="C84" s="141"/>
-      <c r="D84" s="142"/>
-      <c r="E84" s="128" t="s">
+      <c r="A84" s="127"/>
+      <c r="B84" s="129"/>
+      <c r="C84" s="140"/>
+      <c r="D84" s="141"/>
+      <c r="E84" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="F84" s="130"/>
-      <c r="G84" s="141">
+      <c r="F84" s="129"/>
+      <c r="G84" s="140">
         <v>0</v>
       </c>
-      <c r="H84" s="143"/>
-      <c r="I84" s="142"/>
-    </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="145"/>
-      <c r="B85" s="145"/>
-      <c r="C85" s="145"/>
-      <c r="D85" s="145"/>
-      <c r="E85" s="145"/>
-      <c r="F85" s="145"/>
-      <c r="G85" s="145"/>
-      <c r="H85" s="145"/>
-      <c r="I85" s="145"/>
-    </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="146" t="s">
+      <c r="H84" s="142"/>
+      <c r="I84" s="141"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="144"/>
+      <c r="B85" s="144"/>
+      <c r="C85" s="144"/>
+      <c r="D85" s="144"/>
+      <c r="E85" s="144"/>
+      <c r="F85" s="144"/>
+      <c r="G85" s="144"/>
+      <c r="H85" s="144"/>
+      <c r="I85" s="144"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="145" t="s">
         <v>178</v>
       </c>
-      <c r="B86" s="146"/>
-      <c r="C86" s="146"/>
-      <c r="D86" s="146"/>
-      <c r="E86" s="146"/>
-      <c r="F86" s="146"/>
-      <c r="G86" s="146"/>
-      <c r="H86" s="146"/>
-      <c r="I86" s="146"/>
+      <c r="B86" s="145"/>
+      <c r="C86" s="145"/>
+      <c r="D86" s="145"/>
+      <c r="E86" s="145"/>
+      <c r="F86" s="145"/>
+      <c r="G86" s="145"/>
+      <c r="H86" s="145"/>
+      <c r="I86" s="145"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="144"/>
-      <c r="B87" s="144"/>
-      <c r="C87" s="144"/>
-      <c r="D87" s="144"/>
-      <c r="E87" s="144"/>
-      <c r="F87" s="144"/>
-      <c r="G87" s="144"/>
-      <c r="H87" s="144"/>
-      <c r="I87" s="144"/>
+      <c r="A87" s="143"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="143"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="143"/>
+      <c r="G87" s="143"/>
+      <c r="H87" s="143"/>
+      <c r="I87" s="143"/>
     </row>
   </sheetData>
   <autoFilter ref="A14:I74" xr:uid="{0AA4BB56-4E10-4661-8D08-A1EF1778EA27}">
@@ -19893,7 +20191,7 @@
   <dimension ref="B1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/descriptions/Стоимость перевозок.xlsx
+++ b/doc/descriptions/Стоимость перевозок.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D36D7F-1319-4438-846C-3910842DC530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776C38E-75B3-4B1E-A5A8-5E122495C3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{1B61F87A-92F8-4A0C-BB0B-D3EB25E1EAAE}"/>
   </bookViews>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="251">
   <si>
     <t>№ п.п.</t>
   </si>
@@ -888,9 +888,6 @@
     <t>ИТТ</t>
   </si>
   <si>
-    <t>2025-03-01 00:00:00</t>
-  </si>
-  <si>
     <t>2025-04-03 11:04:45</t>
   </si>
   <si>
@@ -943,38 +940,43 @@
     <t>Фильтр  Груз ОТПР  с выбором нескольких значений</t>
   </si>
   <si>
-    <t>Ошибка в слове  в сообщении "За период c 2025-02-01 00:01 по 2025-02-28 23:59, загружено 4425 накладных"</t>
-  </si>
-  <si>
-    <t>Слово "сюрошены" ??</t>
-  </si>
-  <si>
-    <t>Ошибки в словах с расчетом и выбрано</t>
-  </si>
-  <si>
-    <t>Номер</t>
-  </si>
-  <si>
-    <t>Нет сумм по столбцам</t>
-  </si>
-  <si>
-    <t>Дает делать исправления в форме "Расчет стоимости по отправке" в поле  ""Тариф по договору, грн" при введённом номере перечня (сверке)</t>
-  </si>
-  <si>
-    <t>Нет столбца "Тариф по договору, грн", "Разница"</t>
-  </si>
-  <si>
-    <t>Есть возможность добавить выделение строки в ручном режиме (став мышкой)  в "Сверке накладных"?</t>
-  </si>
-  <si>
-    <t>Удалить столбец  "Дата отправления на АМКР"</t>
+    <t>2 Исправить на  - Обновляю документы выбранные за период…</t>
+  </si>
+  <si>
+    <t>Поиск накладной по отправлению</t>
+  </si>
+  <si>
+    <t>Второй лист</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Удалить в форме "Сверка накладных по отправке" - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Введите Ж.д. тариф по договору(грн)…</t>
+    </r>
+  </si>
+  <si>
+    <t>Нет Excel</t>
+  </si>
+  <si>
+    <t>Ввод  накладной  Enter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,17 +1081,20 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1176,8 +1181,17 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1228,7 +1242,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,7 +1599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1788,6 +1808,32 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1827,11 +1873,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1845,68 +1948,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2596,23 +2639,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
+        <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E289B8B-1E32-47E9-9006-3DAAB32C8A80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49FA3241-BA2E-4493-8116-5CB910C38546}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,8 +2678,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="895350" y="276225"/>
-          <a:ext cx="3771900" cy="1323975"/>
+          <a:off x="276225" y="2800351"/>
+          <a:ext cx="7305675" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2657,61 +2700,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
+        <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DBE5D1-F957-4B9D-AAB1-C64B3821B991}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59E7FA1-49B5-46A6-88DF-8F2488DA8800}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="3038475"/>
-          <a:ext cx="8353425" cy="600075"/>
+          <a:off x="609601" y="4438650"/>
+          <a:ext cx="8020050" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2719,243 +2745,43 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4">
+        <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7051BDB5-BB07-47A6-823A-EB08E81926F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB350C9-920C-43E1-8A2D-9C398F6C6105}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="7419975"/>
-          <a:ext cx="4514850" cy="1009650"/>
+          <a:off x="485775" y="581026"/>
+          <a:ext cx="6086475" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5186694E-07C0-4098-BF39-688E9066665C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="600075" y="9020175"/>
-          <a:ext cx="3876675" cy="2219325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1ED487F-E0D2-4DBE-BFC8-44865ABCA868}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4924426" y="7334250"/>
-          <a:ext cx="4895850" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C34018-5C91-45F6-89AC-EA802F3E0D4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="247650" y="1352550"/>
-          <a:ext cx="10315575" cy="2590800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6624,7 +6450,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -6685,7 +6511,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -6733,6 +6559,199 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>916300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236CA170-68D2-4AAA-8926-F88477DDC081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4191000"/>
+          <a:ext cx="8736325" cy="536494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>251</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8582F3B3-FAB6-43DB-85ED-3475F8509D1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="4981575"/>
+          <a:ext cx="2895851" cy="457240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C0DF01-9359-4AAB-9F37-C1A900181CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2228850" y="1562100"/>
+          <a:ext cx="2486025" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609289</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7528E6-56B9-4859-9851-24F2A3D1BEF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="5562600"/>
+          <a:ext cx="2485714" cy="419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7292,25 +7311,25 @@
       <c r="R18" s="22"/>
     </row>
     <row r="19" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="110"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="124"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
@@ -7625,25 +7644,25 @@
       <c r="R34" s="22"/>
     </row>
     <row r="35" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="113"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="126"/>
+      <c r="O35" s="126"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="126"/>
+      <c r="R35" s="127"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
@@ -7677,10 +7696,10 @@
     </row>
     <row r="38" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="23"/>
-      <c r="C38" s="114">
+      <c r="C38" s="128">
         <v>40842023</v>
       </c>
-      <c r="D38" s="115"/>
+      <c r="D38" s="129"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="23"/>
@@ -7961,10 +7980,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F95887-A135-4525-A0DF-37ED5E0D06DE}">
-  <dimension ref="A2:P76"/>
+  <dimension ref="A2:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7972,178 +7991,92 @@
     <col min="1" max="1" width="9.140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="98">
-        <v>1</v>
-      </c>
-      <c r="B2" s="146" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="98">
-        <v>2</v>
-      </c>
-      <c r="B3" s="146" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="98">
-        <v>3</v>
-      </c>
-      <c r="B4" s="146" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="98">
-        <v>4</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="98">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="98">
-        <v>6</v>
-      </c>
-      <c r="B23" s="147" t="s">
-        <v>246</v>
-      </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-    </row>
-    <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="107"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="107"/>
-    </row>
-    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="107"/>
-    </row>
-    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="107"/>
-    </row>
-    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="107"/>
-    </row>
-    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="160" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="160" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="161" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B29" s="107"/>
     </row>
-    <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B30" s="107"/>
     </row>
-    <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="98">
-        <v>7</v>
-      </c>
-      <c r="B31" s="147" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-    </row>
-    <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="107"/>
+    </row>
+    <row r="32" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B32" s="107"/>
     </row>
-    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B33" s="107"/>
     </row>
-    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B34" s="107"/>
     </row>
-    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B35" s="107"/>
     </row>
-    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="98">
-        <v>8</v>
-      </c>
-      <c r="B36" s="147" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="107"/>
+    </row>
+    <row r="37" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="107"/>
     </row>
-    <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B38" s="107"/>
     </row>
-    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B39" s="107"/>
     </row>
-    <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B40" s="107"/>
     </row>
-    <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B41" s="107"/>
     </row>
-    <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B42" s="107"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="98">
-        <v>9</v>
-      </c>
-      <c r="B43" s="148" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="107"/>
+    </row>
+    <row r="44" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B44" s="107"/>
     </row>
-    <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B45" s="107"/>
     </row>
-    <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B46" s="107"/>
     </row>
-    <row r="76" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B76" s="97"/>
+    <row r="47" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B47" s="107"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="108"/>
+    </row>
+    <row r="49" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B49" s="107"/>
+    </row>
+    <row r="50" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="107"/>
+    </row>
+    <row r="51" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B51" s="107"/>
+    </row>
+    <row r="81" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B81" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8158,7 +8091,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8302,25 +8235,25 @@
       <c r="R11" s="22"/>
     </row>
     <row r="12" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="110"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="124"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
@@ -8530,25 +8463,25 @@
       <c r="R21" s="22"/>
     </row>
     <row r="22" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="113"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="127"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
@@ -8582,10 +8515,10 @@
     </row>
     <row r="25" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="23"/>
-      <c r="C25" s="114">
+      <c r="C25" s="128">
         <v>40842023</v>
       </c>
-      <c r="D25" s="115"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="23"/>
@@ -14047,27 +13980,27 @@
     </row>
     <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="110"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="124"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
@@ -14378,7 +14311,7 @@
   </sheetPr>
   <dimension ref="B2:AE50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
@@ -14786,25 +14719,25 @@
       <c r="R31" s="22"/>
     </row>
     <row r="32" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="117"/>
-      <c r="N32" s="117"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="117"/>
-      <c r="R32" s="118"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="132"/>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
@@ -15181,7 +15114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A933ABDA-D0A7-40C6-8AB1-347A246624A9}">
   <dimension ref="A2:AE46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -15554,25 +15487,25 @@
       <c r="R23" s="22"/>
     </row>
     <row r="24" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="118"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="132"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
@@ -16755,11 +16688,11 @@
         <v>186</v>
       </c>
       <c r="M1" s="105" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N1" s="27"/>
       <c r="O1" s="106" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P1" s="27"/>
       <c r="Q1" s="27"/>
@@ -16777,10 +16710,10 @@
       </c>
       <c r="L3" s="101"/>
       <c r="M3" s="101" t="s">
+        <v>236</v>
+      </c>
+      <c r="O3" s="102" t="s">
         <v>237</v>
-      </c>
-      <c r="O3" s="102" t="s">
-        <v>238</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
@@ -16789,11 +16722,11 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L4" s="101"/>
       <c r="O4" s="103" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
@@ -16806,7 +16739,7 @@
       </c>
       <c r="L5" s="101"/>
       <c r="O5" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
@@ -16819,7 +16752,7 @@
       </c>
       <c r="L6" s="101"/>
       <c r="O6" s="103" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
@@ -16829,7 +16762,7 @@
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L7" s="101"/>
       <c r="O7" s="103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
@@ -16839,7 +16772,7 @@
     <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="101"/>
       <c r="O8" s="104" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -17242,8 +17175,8 @@
       <c r="E31" s="24"/>
     </row>
     <row r="32" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
@@ -17537,8 +17470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A4C788-B890-42BC-B7B1-0E50D48C46D3}">
   <dimension ref="B3:Z32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17581,7 +17514,7 @@
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -17652,8 +17585,8 @@
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="115"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="129"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="T10" s="24"/>
@@ -18125,10 +18058,10 @@
       <c r="C26" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="119" t="s">
+      <c r="G26" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="120"/>
+      <c r="H26" s="134"/>
       <c r="I26" s="92">
         <f>SUM(I24:I25)</f>
         <v>18465</v>
@@ -18214,149 +18147,149 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="155" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="125"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="158"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="153"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
     </row>
     <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122" t="s">
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122" t="s">
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122" t="s">
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122" t="s">
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="154"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="159"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="129"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="137"/>
+    </row>
+    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
         <v>149</v>
       </c>
@@ -18378,12 +18311,12 @@
       <c r="G14" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="130" t="s">
+      <c r="H14" s="149" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="131"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="150"/>
+    </row>
+    <row r="15" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66">
         <v>45661</v>
       </c>
@@ -18405,12 +18338,12 @@
       <c r="G15" s="69">
         <v>1196.3599999999999</v>
       </c>
-      <c r="H15" s="132">
+      <c r="H15" s="144">
         <v>7178.16</v>
       </c>
-      <c r="I15" s="133"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="145"/>
+    </row>
+    <row r="16" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66">
         <v>45661</v>
       </c>
@@ -18432,12 +18365,12 @@
       <c r="G16" s="69">
         <v>1196.3599999999999</v>
       </c>
-      <c r="H16" s="132">
+      <c r="H16" s="144">
         <v>7178.16</v>
       </c>
-      <c r="I16" s="133"/>
-    </row>
-    <row r="17" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="145"/>
+    </row>
+    <row r="17" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="66">
         <v>45661</v>
       </c>
@@ -18459,12 +18392,12 @@
       <c r="G17" s="69">
         <v>1481.26</v>
       </c>
-      <c r="H17" s="132">
+      <c r="H17" s="144">
         <v>8887.56</v>
       </c>
-      <c r="I17" s="133"/>
-    </row>
-    <row r="18" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="145"/>
+    </row>
+    <row r="18" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="66">
         <v>45661</v>
       </c>
@@ -18486,12 +18419,12 @@
       <c r="G18" s="69">
         <v>1481.26</v>
       </c>
-      <c r="H18" s="132">
+      <c r="H18" s="144">
         <v>8887.56</v>
       </c>
-      <c r="I18" s="133"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="145"/>
+    </row>
+    <row r="19" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66">
         <v>45661</v>
       </c>
@@ -18513,12 +18446,12 @@
       <c r="G19" s="69">
         <v>1481.26</v>
       </c>
-      <c r="H19" s="132">
+      <c r="H19" s="144">
         <v>8887.56</v>
       </c>
-      <c r="I19" s="133"/>
-    </row>
-    <row r="20" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="145"/>
+    </row>
+    <row r="20" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="66">
         <v>45661</v>
       </c>
@@ -18540,12 +18473,12 @@
       <c r="G20" s="69">
         <v>1481.26</v>
       </c>
-      <c r="H20" s="132">
+      <c r="H20" s="144">
         <v>8887.56</v>
       </c>
-      <c r="I20" s="133"/>
-    </row>
-    <row r="21" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="145"/>
+    </row>
+    <row r="21" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66">
         <v>45661</v>
       </c>
@@ -18567,12 +18500,12 @@
       <c r="G21" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H21" s="132">
+      <c r="H21" s="144">
         <v>10567.44</v>
       </c>
-      <c r="I21" s="133"/>
-    </row>
-    <row r="22" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="145"/>
+    </row>
+    <row r="22" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="66">
         <v>45661</v>
       </c>
@@ -18594,12 +18527,12 @@
       <c r="G22" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H22" s="132">
+      <c r="H22" s="144">
         <v>10567.44</v>
       </c>
-      <c r="I22" s="133"/>
-    </row>
-    <row r="23" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="145"/>
+    </row>
+    <row r="23" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66">
         <v>45661</v>
       </c>
@@ -18621,12 +18554,12 @@
       <c r="G23" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H23" s="132">
+      <c r="H23" s="144">
         <v>10567.44</v>
       </c>
-      <c r="I23" s="133"/>
-    </row>
-    <row r="24" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="145"/>
+    </row>
+    <row r="24" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66">
         <v>45661</v>
       </c>
@@ -18648,12 +18581,12 @@
       <c r="G24" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H24" s="132">
+      <c r="H24" s="144">
         <v>10567.44</v>
       </c>
-      <c r="I24" s="133"/>
-    </row>
-    <row r="25" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="145"/>
+    </row>
+    <row r="25" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66">
         <v>45661</v>
       </c>
@@ -18675,12 +18608,12 @@
       <c r="G25" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H25" s="132">
+      <c r="H25" s="144">
         <v>10567.44</v>
       </c>
-      <c r="I25" s="133"/>
-    </row>
-    <row r="26" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="145"/>
+    </row>
+    <row r="26" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66">
         <v>45661</v>
       </c>
@@ -18702,12 +18635,12 @@
       <c r="G26" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H26" s="132">
+      <c r="H26" s="144">
         <v>10567.44</v>
       </c>
-      <c r="I26" s="133"/>
-    </row>
-    <row r="27" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="145"/>
+    </row>
+    <row r="27" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="66">
         <v>45661</v>
       </c>
@@ -18729,12 +18662,12 @@
       <c r="G27" s="69">
         <v>1761.24</v>
       </c>
-      <c r="H27" s="132">
+      <c r="H27" s="144">
         <v>10567.44</v>
       </c>
-      <c r="I27" s="133"/>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="145"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66">
         <v>45661</v>
       </c>
@@ -18756,12 +18689,12 @@
       <c r="G28" s="69">
         <v>3176.12</v>
       </c>
-      <c r="H28" s="132">
+      <c r="H28" s="144">
         <v>19056.71</v>
       </c>
-      <c r="I28" s="133"/>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="145"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66">
         <v>45661</v>
       </c>
@@ -18783,12 +18716,12 @@
       <c r="G29" s="69">
         <v>3176.12</v>
       </c>
-      <c r="H29" s="132">
+      <c r="H29" s="144">
         <v>19056.71</v>
       </c>
-      <c r="I29" s="133"/>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="145"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66">
         <v>45661</v>
       </c>
@@ -18810,12 +18743,12 @@
       <c r="G30" s="69">
         <v>7831.17</v>
       </c>
-      <c r="H30" s="132">
+      <c r="H30" s="144">
         <v>46987.01</v>
       </c>
-      <c r="I30" s="133"/>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="145"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66">
         <v>45661</v>
       </c>
@@ -18837,12 +18770,12 @@
       <c r="G31" s="69">
         <v>3176.12</v>
       </c>
-      <c r="H31" s="132">
+      <c r="H31" s="144">
         <v>19056.71</v>
       </c>
-      <c r="I31" s="133"/>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="145"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="66">
         <v>45661</v>
       </c>
@@ -18864,12 +18797,12 @@
       <c r="G32" s="69">
         <v>8333.48</v>
       </c>
-      <c r="H32" s="132">
+      <c r="H32" s="144">
         <v>50000.9</v>
       </c>
-      <c r="I32" s="133"/>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="145"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="66">
         <v>45661</v>
       </c>
@@ -18891,12 +18824,12 @@
       <c r="G33" s="69">
         <v>6556.5</v>
       </c>
-      <c r="H33" s="132">
+      <c r="H33" s="144">
         <v>39339.019999999997</v>
       </c>
-      <c r="I33" s="133"/>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="145"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="66">
         <v>45661</v>
       </c>
@@ -18918,12 +18851,12 @@
       <c r="G34" s="69">
         <v>8434.68</v>
       </c>
-      <c r="H34" s="132">
+      <c r="H34" s="144">
         <v>50608.1</v>
       </c>
-      <c r="I34" s="133"/>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="145"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="66">
         <v>45661</v>
       </c>
@@ -18945,12 +18878,12 @@
       <c r="G35" s="69">
         <v>6479.5</v>
       </c>
-      <c r="H35" s="132">
+      <c r="H35" s="144">
         <v>38877.019999999997</v>
       </c>
-      <c r="I35" s="133"/>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="145"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="66">
         <v>45661</v>
       </c>
@@ -18972,12 +18905,12 @@
       <c r="G36" s="69">
         <v>6479.5</v>
       </c>
-      <c r="H36" s="132">
+      <c r="H36" s="144">
         <v>38877.019999999997</v>
       </c>
-      <c r="I36" s="133"/>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="145"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="66">
         <v>45661</v>
       </c>
@@ -18999,12 +18932,12 @@
       <c r="G37" s="69">
         <v>6556.5</v>
       </c>
-      <c r="H37" s="132">
+      <c r="H37" s="144">
         <v>39339.019999999997</v>
       </c>
-      <c r="I37" s="133"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="145"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="71">
         <v>45661</v>
       </c>
@@ -19026,12 +18959,12 @@
       <c r="G38" s="74">
         <v>10559.8</v>
       </c>
-      <c r="H38" s="135">
+      <c r="H38" s="151">
         <v>63358.8</v>
       </c>
-      <c r="I38" s="136"/>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="152"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="66">
         <v>45661</v>
       </c>
@@ -19053,12 +18986,12 @@
       <c r="G39" s="69">
         <v>7736.37</v>
       </c>
-      <c r="H39" s="132">
+      <c r="H39" s="144">
         <v>46418.21</v>
       </c>
-      <c r="I39" s="133"/>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="145"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="66">
         <v>45661</v>
       </c>
@@ -19080,12 +19013,12 @@
       <c r="G40" s="69">
         <v>7736.37</v>
       </c>
-      <c r="H40" s="132">
+      <c r="H40" s="144">
         <v>46418.21</v>
       </c>
-      <c r="I40" s="133"/>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="145"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="66">
         <v>45661</v>
       </c>
@@ -19107,12 +19040,12 @@
       <c r="G41" s="69">
         <v>7831.17</v>
       </c>
-      <c r="H41" s="132">
+      <c r="H41" s="144">
         <v>46987.01</v>
       </c>
-      <c r="I41" s="133"/>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="145"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="66">
         <v>45661</v>
       </c>
@@ -19134,12 +19067,12 @@
       <c r="G42" s="69">
         <v>7736.37</v>
       </c>
-      <c r="H42" s="132">
+      <c r="H42" s="144">
         <v>46418.21</v>
       </c>
-      <c r="I42" s="133"/>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="145"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="66">
         <v>45661</v>
       </c>
@@ -19161,12 +19094,12 @@
       <c r="G43" s="69">
         <v>3176.12</v>
       </c>
-      <c r="H43" s="132">
+      <c r="H43" s="144">
         <v>19056.71</v>
       </c>
-      <c r="I43" s="133"/>
-    </row>
-    <row r="44" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="I43" s="145"/>
+    </row>
+    <row r="44" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="71">
         <v>45661</v>
       </c>
@@ -19188,18 +19121,18 @@
       <c r="G44" s="74">
         <v>1098.42</v>
       </c>
-      <c r="H44" s="135">
+      <c r="H44" s="151">
         <v>6590.52</v>
       </c>
-      <c r="I44" s="136"/>
+      <c r="I44" s="152"/>
     </row>
     <row r="45" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="137" t="s">
+      <c r="A45" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="139"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="148"/>
       <c r="E45" s="70">
         <v>525142.19999999995</v>
       </c>
@@ -19209,53 +19142,53 @@
       <c r="G45" s="70">
         <v>126720.75</v>
       </c>
-      <c r="H45" s="140">
+      <c r="H45" s="138">
         <v>760324.53</v>
       </c>
-      <c r="I45" s="141"/>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="137" t="s">
+      <c r="I45" s="139"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="141"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="139"/>
     </row>
     <row r="47" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="137" t="s">
+      <c r="A47" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="140">
+      <c r="B47" s="147"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="138">
         <v>68635.48</v>
       </c>
-      <c r="I47" s="141"/>
+      <c r="I47" s="139"/>
     </row>
     <row r="48" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="128"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="129"/>
-    </row>
-    <row r="49" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="137"/>
+    </row>
+    <row r="49" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="65" t="s">
         <v>149</v>
       </c>
@@ -19277,12 +19210,12 @@
       <c r="G49" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="H49" s="130" t="s">
+      <c r="H49" s="149" t="s">
         <v>156</v>
       </c>
-      <c r="I49" s="131"/>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="150"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="66">
         <v>45661</v>
       </c>
@@ -19304,12 +19237,12 @@
       <c r="G50" s="69">
         <v>0</v>
       </c>
-      <c r="H50" s="132">
+      <c r="H50" s="144">
         <v>57765.2</v>
       </c>
-      <c r="I50" s="133"/>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="145"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="66">
         <v>45661</v>
       </c>
@@ -19331,18 +19264,18 @@
       <c r="G51" s="69">
         <v>0</v>
       </c>
-      <c r="H51" s="132">
+      <c r="H51" s="144">
         <v>58694</v>
       </c>
-      <c r="I51" s="133"/>
+      <c r="I51" s="145"/>
     </row>
     <row r="52" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="137" t="s">
+      <c r="A52" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="138"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="139"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="148"/>
       <c r="E52" s="70">
         <v>116100.4</v>
       </c>
@@ -19352,51 +19285,51 @@
       <c r="G52" s="70">
         <v>0</v>
       </c>
-      <c r="H52" s="140">
+      <c r="H52" s="138">
         <v>116459.2</v>
       </c>
-      <c r="I52" s="141"/>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="137" t="s">
+      <c r="I52" s="139"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="138"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="141"/>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="137" t="s">
+      <c r="B53" s="147"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="147"/>
+      <c r="F53" s="147"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="139"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="138"/>
-      <c r="F54" s="138"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="141"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="147"/>
+      <c r="F54" s="147"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="138"/>
+      <c r="I54" s="139"/>
     </row>
     <row r="55" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="127" t="s">
+      <c r="A55" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="128"/>
-      <c r="C55" s="128"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="128"/>
-      <c r="I55" s="129"/>
-    </row>
-    <row r="56" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="143"/>
+      <c r="G55" s="143"/>
+      <c r="H55" s="143"/>
+      <c r="I55" s="137"/>
+    </row>
+    <row r="56" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="s">
         <v>149</v>
       </c>
@@ -19418,12 +19351,12 @@
       <c r="G56" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="H56" s="130" t="s">
+      <c r="H56" s="149" t="s">
         <v>156</v>
       </c>
-      <c r="I56" s="131"/>
-    </row>
-    <row r="57" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="150"/>
+    </row>
+    <row r="57" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="66">
         <v>45661</v>
       </c>
@@ -19445,12 +19378,12 @@
       <c r="G57" s="69">
         <v>0</v>
       </c>
-      <c r="H57" s="132">
+      <c r="H57" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I57" s="133"/>
-    </row>
-    <row r="58" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="145"/>
+    </row>
+    <row r="58" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="66">
         <v>45661</v>
       </c>
@@ -19472,12 +19405,12 @@
       <c r="G58" s="69">
         <v>0</v>
       </c>
-      <c r="H58" s="132">
+      <c r="H58" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I58" s="133"/>
-    </row>
-    <row r="59" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="145"/>
+    </row>
+    <row r="59" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="66">
         <v>45661</v>
       </c>
@@ -19499,12 +19432,12 @@
       <c r="G59" s="69">
         <v>0</v>
       </c>
-      <c r="H59" s="132">
+      <c r="H59" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I59" s="133"/>
-    </row>
-    <row r="60" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="145"/>
+    </row>
+    <row r="60" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="66">
         <v>45661</v>
       </c>
@@ -19526,12 +19459,12 @@
       <c r="G60" s="69">
         <v>0</v>
       </c>
-      <c r="H60" s="132">
+      <c r="H60" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I60" s="133"/>
-    </row>
-    <row r="61" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="145"/>
+    </row>
+    <row r="61" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="66">
         <v>45661</v>
       </c>
@@ -19553,12 +19486,12 @@
       <c r="G61" s="69">
         <v>0</v>
       </c>
-      <c r="H61" s="132">
+      <c r="H61" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I61" s="133"/>
-    </row>
-    <row r="62" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="145"/>
+    </row>
+    <row r="62" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="66">
         <v>45661</v>
       </c>
@@ -19580,12 +19513,12 @@
       <c r="G62" s="69">
         <v>0</v>
       </c>
-      <c r="H62" s="132">
+      <c r="H62" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I62" s="133"/>
-    </row>
-    <row r="63" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="145"/>
+    </row>
+    <row r="63" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="66">
         <v>45661</v>
       </c>
@@ -19607,12 +19540,12 @@
       <c r="G63" s="69">
         <v>0</v>
       </c>
-      <c r="H63" s="132">
+      <c r="H63" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I63" s="133"/>
-    </row>
-    <row r="64" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="145"/>
+    </row>
+    <row r="64" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="66">
         <v>45661</v>
       </c>
@@ -19634,12 +19567,12 @@
       <c r="G64" s="69">
         <v>0</v>
       </c>
-      <c r="H64" s="132">
+      <c r="H64" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I64" s="133"/>
-    </row>
-    <row r="65" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="145"/>
+    </row>
+    <row r="65" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="66">
         <v>45661</v>
       </c>
@@ -19661,12 +19594,12 @@
       <c r="G65" s="69">
         <v>0</v>
       </c>
-      <c r="H65" s="132">
+      <c r="H65" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I65" s="133"/>
-    </row>
-    <row r="66" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="145"/>
+    </row>
+    <row r="66" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="66">
         <v>45661</v>
       </c>
@@ -19688,12 +19621,12 @@
       <c r="G66" s="69">
         <v>0</v>
       </c>
-      <c r="H66" s="132">
+      <c r="H66" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I66" s="133"/>
-    </row>
-    <row r="67" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="145"/>
+    </row>
+    <row r="67" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="66">
         <v>45661</v>
       </c>
@@ -19715,12 +19648,12 @@
       <c r="G67" s="69">
         <v>0</v>
       </c>
-      <c r="H67" s="132">
+      <c r="H67" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I67" s="133"/>
-    </row>
-    <row r="68" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="145"/>
+    </row>
+    <row r="68" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="66">
         <v>45661</v>
       </c>
@@ -19742,12 +19675,12 @@
       <c r="G68" s="69">
         <v>0</v>
       </c>
-      <c r="H68" s="132">
+      <c r="H68" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I68" s="133"/>
-    </row>
-    <row r="69" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="145"/>
+    </row>
+    <row r="69" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="66">
         <v>45661</v>
       </c>
@@ -19769,12 +19702,12 @@
       <c r="G69" s="69">
         <v>0</v>
       </c>
-      <c r="H69" s="132">
+      <c r="H69" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I69" s="133"/>
-    </row>
-    <row r="70" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="145"/>
+    </row>
+    <row r="70" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="66">
         <v>45661</v>
       </c>
@@ -19796,12 +19729,12 @@
       <c r="G70" s="69">
         <v>0</v>
       </c>
-      <c r="H70" s="132">
+      <c r="H70" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I70" s="133"/>
-    </row>
-    <row r="71" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="145"/>
+    </row>
+    <row r="71" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="66">
         <v>45661</v>
       </c>
@@ -19823,18 +19756,18 @@
       <c r="G71" s="69">
         <v>0</v>
       </c>
-      <c r="H71" s="132">
+      <c r="H71" s="144">
         <v>18135.099999999999</v>
       </c>
-      <c r="I71" s="133"/>
+      <c r="I71" s="145"/>
     </row>
     <row r="72" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="137" t="s">
+      <c r="A72" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="B72" s="138"/>
-      <c r="C72" s="138"/>
-      <c r="D72" s="139"/>
+      <c r="B72" s="147"/>
+      <c r="C72" s="147"/>
+      <c r="D72" s="148"/>
       <c r="E72" s="70">
         <v>243774</v>
       </c>
@@ -19844,210 +19777,210 @@
       <c r="G72" s="70">
         <v>0</v>
       </c>
-      <c r="H72" s="140">
+      <c r="H72" s="138">
         <v>272026.5</v>
       </c>
-      <c r="I72" s="141"/>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="137" t="s">
+      <c r="I72" s="139"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="B73" s="138"/>
-      <c r="C73" s="138"/>
-      <c r="D73" s="138"/>
-      <c r="E73" s="138"/>
-      <c r="F73" s="138"/>
-      <c r="G73" s="139"/>
-      <c r="H73" s="140"/>
-      <c r="I73" s="141"/>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="137" t="s">
+      <c r="B73" s="147"/>
+      <c r="C73" s="147"/>
+      <c r="D73" s="147"/>
+      <c r="E73" s="147"/>
+      <c r="F73" s="147"/>
+      <c r="G73" s="148"/>
+      <c r="H73" s="138"/>
+      <c r="I73" s="139"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="B74" s="138"/>
-      <c r="C74" s="138"/>
-      <c r="D74" s="138"/>
-      <c r="E74" s="138"/>
-      <c r="F74" s="138"/>
-      <c r="G74" s="139"/>
-      <c r="H74" s="140"/>
-      <c r="I74" s="141"/>
+      <c r="B74" s="147"/>
+      <c r="C74" s="147"/>
+      <c r="D74" s="147"/>
+      <c r="E74" s="147"/>
+      <c r="F74" s="147"/>
+      <c r="G74" s="148"/>
+      <c r="H74" s="138"/>
+      <c r="I74" s="139"/>
     </row>
     <row r="76" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="127" t="s">
+      <c r="A76" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="B76" s="129"/>
-      <c r="C76" s="140">
+      <c r="B76" s="137"/>
+      <c r="C76" s="138">
         <v>1022089.48</v>
       </c>
-      <c r="D76" s="141"/>
-      <c r="E76" s="127"/>
-      <c r="F76" s="128"/>
-      <c r="G76" s="128"/>
-      <c r="H76" s="128"/>
-      <c r="I76" s="129"/>
+      <c r="D76" s="139"/>
+      <c r="E76" s="136"/>
+      <c r="F76" s="143"/>
+      <c r="G76" s="143"/>
+      <c r="H76" s="143"/>
+      <c r="I76" s="137"/>
     </row>
     <row r="77" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="127" t="s">
+      <c r="A77" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="B77" s="129"/>
-      <c r="C77" s="140">
+      <c r="B77" s="137"/>
+      <c r="C77" s="138">
         <v>388485.7</v>
       </c>
-      <c r="D77" s="141"/>
-      <c r="E77" s="127" t="s">
+      <c r="D77" s="139"/>
+      <c r="E77" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="F77" s="129"/>
-      <c r="G77" s="140"/>
-      <c r="H77" s="142"/>
-      <c r="I77" s="141"/>
+      <c r="F77" s="137"/>
+      <c r="G77" s="138"/>
+      <c r="H77" s="140"/>
+      <c r="I77" s="139"/>
     </row>
     <row r="78" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="127" t="s">
+      <c r="A78" s="136" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="129"/>
-      <c r="C78" s="140">
+      <c r="B78" s="137"/>
+      <c r="C78" s="138">
         <v>633603.78</v>
       </c>
-      <c r="D78" s="141"/>
-      <c r="E78" s="127"/>
-      <c r="F78" s="129"/>
-      <c r="G78" s="140"/>
-      <c r="H78" s="142"/>
-      <c r="I78" s="141"/>
+      <c r="D78" s="139"/>
+      <c r="E78" s="136"/>
+      <c r="F78" s="137"/>
+      <c r="G78" s="138"/>
+      <c r="H78" s="140"/>
+      <c r="I78" s="139"/>
     </row>
     <row r="79" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="127" t="s">
+      <c r="A79" s="136" t="s">
         <v>170</v>
       </c>
-      <c r="B79" s="129"/>
-      <c r="C79" s="140"/>
-      <c r="D79" s="141"/>
-      <c r="E79" s="127" t="s">
+      <c r="B79" s="137"/>
+      <c r="C79" s="138"/>
+      <c r="D79" s="139"/>
+      <c r="E79" s="136" t="s">
         <v>171</v>
       </c>
-      <c r="F79" s="129"/>
-      <c r="G79" s="140"/>
-      <c r="H79" s="142"/>
-      <c r="I79" s="141"/>
+      <c r="F79" s="137"/>
+      <c r="G79" s="138"/>
+      <c r="H79" s="140"/>
+      <c r="I79" s="139"/>
     </row>
     <row r="80" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="127" t="s">
+      <c r="A80" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="B80" s="129"/>
-      <c r="C80" s="140"/>
-      <c r="D80" s="141"/>
-      <c r="E80" s="127" t="s">
+      <c r="B80" s="137"/>
+      <c r="C80" s="138"/>
+      <c r="D80" s="139"/>
+      <c r="E80" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="F80" s="129"/>
-      <c r="G80" s="140"/>
-      <c r="H80" s="142"/>
-      <c r="I80" s="141"/>
+      <c r="F80" s="137"/>
+      <c r="G80" s="138"/>
+      <c r="H80" s="140"/>
+      <c r="I80" s="139"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="127" t="s">
+      <c r="A81" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="129"/>
-      <c r="C81" s="140"/>
-      <c r="D81" s="141"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="129"/>
-      <c r="G81" s="140"/>
-      <c r="H81" s="142"/>
-      <c r="I81" s="141"/>
+      <c r="B81" s="137"/>
+      <c r="C81" s="138"/>
+      <c r="D81" s="139"/>
+      <c r="E81" s="136"/>
+      <c r="F81" s="137"/>
+      <c r="G81" s="138"/>
+      <c r="H81" s="140"/>
+      <c r="I81" s="139"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="127" t="s">
+      <c r="A82" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="129"/>
-      <c r="C82" s="140">
+      <c r="B82" s="137"/>
+      <c r="C82" s="138">
         <v>126720.75</v>
       </c>
-      <c r="D82" s="141"/>
-      <c r="E82" s="127"/>
-      <c r="F82" s="128"/>
-      <c r="G82" s="128"/>
-      <c r="H82" s="128"/>
-      <c r="I82" s="129"/>
+      <c r="D82" s="139"/>
+      <c r="E82" s="136"/>
+      <c r="F82" s="143"/>
+      <c r="G82" s="143"/>
+      <c r="H82" s="143"/>
+      <c r="I82" s="137"/>
     </row>
     <row r="83" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="127" t="s">
+      <c r="A83" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="129"/>
-      <c r="C83" s="140">
+      <c r="B83" s="137"/>
+      <c r="C83" s="138">
         <v>1148810.23</v>
       </c>
-      <c r="D83" s="141"/>
-      <c r="E83" s="127" t="s">
+      <c r="D83" s="139"/>
+      <c r="E83" s="136" t="s">
         <v>176</v>
       </c>
-      <c r="F83" s="129"/>
-      <c r="G83" s="140">
+      <c r="F83" s="137"/>
+      <c r="G83" s="138">
         <v>-7167364.0999999996</v>
       </c>
-      <c r="H83" s="142"/>
-      <c r="I83" s="141"/>
+      <c r="H83" s="140"/>
+      <c r="I83" s="139"/>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="127"/>
-      <c r="B84" s="129"/>
-      <c r="C84" s="140"/>
-      <c r="D84" s="141"/>
-      <c r="E84" s="127" t="s">
+      <c r="A84" s="136"/>
+      <c r="B84" s="137"/>
+      <c r="C84" s="138"/>
+      <c r="D84" s="139"/>
+      <c r="E84" s="136" t="s">
         <v>177</v>
       </c>
-      <c r="F84" s="129"/>
-      <c r="G84" s="140">
+      <c r="F84" s="137"/>
+      <c r="G84" s="138">
         <v>0</v>
       </c>
-      <c r="H84" s="142"/>
-      <c r="I84" s="141"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="144"/>
-      <c r="B85" s="144"/>
-      <c r="C85" s="144"/>
-      <c r="D85" s="144"/>
-      <c r="E85" s="144"/>
-      <c r="F85" s="144"/>
-      <c r="G85" s="144"/>
-      <c r="H85" s="144"/>
-      <c r="I85" s="144"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="145" t="s">
+      <c r="H84" s="140"/>
+      <c r="I84" s="139"/>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="141"/>
+      <c r="B85" s="141"/>
+      <c r="C85" s="141"/>
+      <c r="D85" s="141"/>
+      <c r="E85" s="141"/>
+      <c r="F85" s="141"/>
+      <c r="G85" s="141"/>
+      <c r="H85" s="141"/>
+      <c r="I85" s="141"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="B86" s="145"/>
-      <c r="C86" s="145"/>
-      <c r="D86" s="145"/>
-      <c r="E86" s="145"/>
-      <c r="F86" s="145"/>
-      <c r="G86" s="145"/>
-      <c r="H86" s="145"/>
-      <c r="I86" s="145"/>
+      <c r="B86" s="142"/>
+      <c r="C86" s="142"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="142"/>
+      <c r="F86" s="142"/>
+      <c r="G86" s="142"/>
+      <c r="H86" s="142"/>
+      <c r="I86" s="142"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="143"/>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="143"/>
-      <c r="G87" s="143"/>
-      <c r="H87" s="143"/>
-      <c r="I87" s="143"/>
+      <c r="A87" s="135"/>
+      <c r="B87" s="135"/>
+      <c r="C87" s="135"/>
+      <c r="D87" s="135"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="135"/>
+      <c r="G87" s="135"/>
+      <c r="H87" s="135"/>
+      <c r="I87" s="135"/>
     </row>
   </sheetData>
   <autoFilter ref="A14:I74" xr:uid="{0AA4BB56-4E10-4661-8D08-A1EF1778EA27}">
@@ -20057,20 +19990,98 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="122">
-    <mergeCell ref="A87:I87"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="A85:I85"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:I82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:I76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="H74:I74"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="E80:F80"/>
@@ -20087,98 +20098,20 @@
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="G79:I79"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:I76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:I82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:I83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20188,17 +20121,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637E8959-69C9-4C2B-877C-423087276BDD}">
-  <dimension ref="B1:Y15"/>
+  <dimension ref="B1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" customWidth="1"/>
     <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
@@ -20211,14 +20146,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>234</v>
+      <c r="B1" s="120" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>208</v>
       </c>
+      <c r="H7" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -20484,24 +20422,451 @@
       <c r="S15" s="16">
         <v>8134396</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>232</v>
+      <c r="T15" s="119">
+        <v>44621</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>227</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>222</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="109" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="121" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="111" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="111" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="I30" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="M30" s="110" t="s">
+        <v>181</v>
+      </c>
+      <c r="N30" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="O30" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="P30" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="R30" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="S30" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="T30" s="112" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="111">
+        <v>46228342</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="113">
+        <v>12972.9</v>
+      </c>
+      <c r="G31" s="113">
+        <f>2885+26400+10541.1</f>
+        <v>39826.1</v>
+      </c>
+      <c r="H31" s="113">
+        <f>F31+G31</f>
+        <v>52799</v>
+      </c>
+      <c r="I31" s="111">
+        <v>20250104</v>
+      </c>
+      <c r="J31" s="114">
+        <v>45661</v>
+      </c>
+      <c r="K31" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="L31" s="111">
+        <v>421161</v>
+      </c>
+      <c r="M31" s="111">
+        <v>467201</v>
+      </c>
+      <c r="N31" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="O31" s="111">
+        <v>352506</v>
+      </c>
+      <c r="P31" s="111" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q31" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="R31" s="115">
+        <v>8116733</v>
+      </c>
+      <c r="S31" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="T31" s="116">
+        <v>44927.631944444445</v>
+      </c>
+      <c r="U31" s="117" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ebd7700b-740a-4b3c-a16f-e1dc2d70eed7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0CF096AFF253B4E80F48D44C74AA6F0" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ed45891770f837e88f27f94458a58d3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ebd7700b-740a-4b3c-a16f-e1dc2d70eed7" xmlns:ns4="80db7623-9858-4c08-9f22-cb8829469dd9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da242297868c1d6695c4bccdda1567d9" ns3:_="" ns4:_="">
+    <xsd:import namespace="ebd7700b-740a-4b3c-a16f-e1dc2d70eed7"/>
+    <xsd:import namespace="80db7623-9858-4c08-9f22-cb8829469dd9"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ebd7700b-740a-4b3c-a16f-e1dc2d70eed7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="11" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="17" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="80db7623-9858-4c08-9f22-cb8829469dd9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052E1548-0EF3-4725-926C-E7086A8C259B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="80db7623-9858-4c08-9f22-cb8829469dd9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ebd7700b-740a-4b3c-a16f-e1dc2d70eed7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E9706A3-61B4-4B32-94C7-5199E7B473FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB295BD7-1466-45A2-A4FD-E5ACF56A4E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ebd7700b-740a-4b3c-a16f-e1dc2d70eed7"/>
+    <ds:schemaRef ds:uri="80db7623-9858-4c08-9f22-cb8829469dd9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{37cd273a-1cec-4aae-a297-41480ea54f8d}" enabled="0" method="" siteId="{37cd273a-1cec-4aae-a297-41480ea54f8d}" removed="1"/>
+</clbl:labelList>
 </file>